--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\19_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E68F09F-5461-46EA-8B2D-BA8572700C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE00BA9-4F38-4476-9DF0-BC9FA52F8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -683,10 +683,10 @@
     <t>inactive</t>
   </si>
   <si>
-    <t>L3PlusPerc</t>
-  </si>
-  <si>
     <t>employmentProjection</t>
+  </si>
+  <si>
+    <t>L3PlusRate</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>148</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="21" spans="1:13" ht="334" thickBot="1">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>142</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE00BA9-4F38-4476-9DF0-BC9FA52F8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF84BD86-762B-4D46-B16D-17AC86338A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="196">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -484,9 +484,6 @@
     <t>Growth from 2023 to 2035</t>
   </si>
   <si>
-    <t>Oct-Sep 2022 data</t>
-  </si>
-  <si>
     <t>Dec 2022 data</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>AY21/22 data</t>
   </si>
   <si>
-    <t>2021 data</t>
-  </si>
-  <si>
     <t>AY20/21 data</t>
   </si>
   <si>
@@ -575,12 +569,6 @@
   </si>
   <si>
     <t>will year on year employment volume growth change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projections are from Skills Imperative 2035. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data presented is the baseline projection. Alternative scenarios are available from NFER. </t>
   </si>
   <si>
     <t>&lt;ol&gt;
@@ -649,8 +637,45 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
+    <t>&lt;a href = 'https://www.gov.uk/government/publications/labour-market-and-skills-projections-2020-to-2035'&gt;Skills Imperative 2035&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>inemploymentRate</t>
+  </si>
+  <si>
+    <t>inemployment</t>
+  </si>
+  <si>
+    <t>selfemployedRate</t>
+  </si>
+  <si>
+    <t>unemployedRate</t>
+  </si>
+  <si>
+    <t>selfemployed</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>employmentProjection</t>
+  </si>
+  <si>
+    <t>L3PlusRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projections are from Skills Imperative 2035. The occupation projections are based on ONS survey data that has been impacted by a coding error, so should be used with caution.  </t>
+  </si>
+  <si>
+    <t>Data presented is the baseline projection. Alternative scenarios are available from NFER.  The occupation projections are based on ONS survey data that has been impacted by a coding error, so should be used with caution.  For more information on the miscoding of occupation data see this  &lt;a href = 'https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/articles/theimpactofmiscodingofoccupationaldatainofficefornationalstatisticssocialsurveysuk/2022-09-26'&gt;ONS article&lt;/a&gt;.</t>
+  </si>
+  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;The projections presented in this Workbook are calculated from a number of different data sources, using a variety of econometric and statistical techniques. As a result, precise margins of error cannot be assigned to the estimates. For further details, see the Technical Report. &lt;/li&gt;
+&lt;li&gt;The occupation projections are based on ONS survey data that has been impacted by a coding error, so should be used with caution.  For more information on the miscoding of occupation data see this  &lt;a href = 'https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/articles/theimpactofmiscodingofoccupationaldatainofficefornationalstatisticssocialsurveysuk/2022-09-26'&gt;ONS article&lt;/a&gt;.&lt;/li&gt;
  &lt;li&gt;Industries are based on SIC 2007 codes. &lt;/li&gt;
  &lt;li&gt;Time series of the breakdowns can be downloaded in the data download section or in the publication. &lt;/li&gt;
  &lt;li&gt;Further breakdowns are available in the published data eg gender, full-time/part-time, as well combined breakdowns. Replacement demand is also available. &lt;/li&gt;
@@ -659,34 +684,13 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://www.gov.uk/government/publications/labour-market-and-skills-projections-2020-to-2035'&gt;Skills Imperative 2035&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>inemploymentRate</t>
-  </si>
-  <si>
-    <t>inemployment</t>
-  </si>
-  <si>
-    <t>selfemployedRate</t>
-  </si>
-  <si>
-    <t>unemployedRate</t>
-  </si>
-  <si>
-    <t>selfemployed</t>
-  </si>
-  <si>
-    <t>unemployed</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>employmentProjection</t>
-  </si>
-  <si>
-    <t>L3PlusRate</t>
+    <t>Jan-Dec 2022 data</t>
+  </si>
+  <si>
+    <t>Jan-Dec 2021 data</t>
+  </si>
+  <si>
+    <t>Qualification estimates for the Jan 2022-Dec2022 survey period are temporarily suspended. The coding of qualifications has been changed to reflect an updated qualification framework. ONS have temporarily suspended the publication of these series while they update their datasets to reflect this change. They will reinstate qualification outputs as soon as they have made this update.</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1160,10 +1164,10 @@
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -1175,13 +1179,13 @@
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>60</v>
@@ -1201,10 +1205,10 @@
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -1216,13 +1220,13 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>65</v>
@@ -1242,10 +1246,10 @@
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -1257,13 +1261,13 @@
         <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>60</v>
@@ -1286,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -1298,13 +1302,13 @@
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>72</v>
@@ -1324,10 +1328,10 @@
     </row>
     <row r="6" spans="1:13" ht="290.5" thickBot="1">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
@@ -1339,13 +1343,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>76</v>
@@ -1365,10 +1369,10 @@
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -1380,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>80</v>
@@ -1406,10 +1410,10 @@
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -1421,13 +1425,13 @@
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>84</v>
@@ -1447,10 +1451,10 @@
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -1462,13 +1466,13 @@
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>88</v>
@@ -1491,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
@@ -1503,13 +1507,13 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>47</v>
@@ -1532,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -1544,13 +1548,13 @@
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>96</v>
@@ -1573,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>28</v>
@@ -1585,13 +1589,13 @@
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>101</v>
@@ -1614,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>28</v>
@@ -1626,13 +1630,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>106</v>
@@ -1655,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>32</v>
@@ -1667,13 +1671,13 @@
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>110</v>
@@ -1696,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>33</v>
@@ -1708,13 +1712,13 @@
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>115</v>
@@ -1737,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
@@ -1749,13 +1753,13 @@
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>53</v>
@@ -1778,7 +1782,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
@@ -1790,13 +1794,13 @@
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>54</v>
@@ -1816,13 +1820,13 @@
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
@@ -1831,13 +1835,13 @@
         <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>55</v>
@@ -1860,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1872,13 +1876,13 @@
         <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>56</v>
@@ -1901,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -1913,13 +1917,13 @@
         <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>57</v>
@@ -1937,42 +1941,42 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="334" thickBot="1">
+    <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="M21" s="8"/>
     </row>
@@ -1981,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
@@ -1993,7 +1997,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2002,7 +2006,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>33</v>
@@ -2014,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G23" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF84BD86-762B-4D46-B16D-17AC86338A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DF84BD86-762B-4D46-B16D-17AC86338A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683957A4-571D-4DFA-9AB4-BE1DDFA9F4A4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -579,16 +579,6 @@
   </si>
   <si>
     <t>&lt;ol&gt;
-  &lt;li&gt;Employment volumes are for 16-64 year olds.&lt;/li&gt;
-&lt;li&gt;Industry split volumes are for all ages. &lt;/li&gt;
-&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;li&gt;Standard Occupational Classification 2010 (SOC2010). The ONS have announced that, due to a coding error, their occupational data should be used with caution. For more information see the data tab.&lt;/li&gt;
-&lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
   &lt;li&gt;These statistics should be treated as experimental, as they are still subject to testing the ability to meet user needs.&lt;/li&gt;
 &lt;li&gt;Duplication of adverts can occur when the same job is posted on multiple job boards, or when multiple recruiters advertise the job at the same time.&lt;/li&gt;
 &lt;li&gt;Counts have been rounded to the nearest 5. Totals may not add due to this rounding.&lt;/li&gt;
@@ -691,6 +681,16 @@
   </si>
   <si>
     <t>Qualification estimates for the Jan 2022-Dec2022 survey period are temporarily suspended. The coding of qualifications has been changed to reflect an updated qualification framework. ONS have temporarily suspended the publication of these series while they update their datasets to reflect this change. They will reinstate qualification outputs as soon as they have made this update.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Employment volumes are for 16-64 year olds.&lt;/li&gt;
+&lt;li&gt;Industry split volumes are for all ages. &lt;/li&gt;
+&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
+&lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -1326,12 +1326,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="290.5" thickBot="1">
+    <row r="6" spans="1:13" ht="261.5" thickBot="1">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
@@ -1343,7 +1343,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -1507,7 +1507,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>47</v>
@@ -1548,7 +1548,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>48</v>
@@ -1589,7 +1589,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
@@ -1630,7 +1630,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>50</v>
@@ -1671,7 +1671,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>51</v>
@@ -1712,7 +1712,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>52</v>
@@ -1753,7 +1753,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>53</v>
@@ -1794,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>54</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
@@ -1835,7 +1835,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>55</v>
@@ -1876,7 +1876,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>56</v>
@@ -1917,7 +1917,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>57</v>
@@ -1943,22 +1943,22 @@
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>148</v>
@@ -1997,7 +1997,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2018,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DF84BD86-762B-4D46-B16D-17AC86338A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683957A4-571D-4DFA-9AB4-BE1DDFA9F4A4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DF84BD86-762B-4D46-B16D-17AC86338A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017BFB79-D56F-49CB-BB43-F76775AA17B7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -674,9 +674,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Jan-Dec 2022 data</t>
-  </si>
-  <si>
     <t>Jan-Dec 2021 data</t>
   </si>
   <si>
@@ -691,6 +688,9 @@
 &lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
 &lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Apr 2022 - Mar 2023 data</t>
   </si>
 </sst>
 </file>
@@ -739,6 +739,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1110,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1167,7 +1168,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -1208,7 +1209,7 @@
         <v>182</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -1249,7 +1250,7 @@
         <v>183</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -1290,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -1331,7 +1332,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
@@ -1343,7 +1344,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1372,7 +1373,7 @@
         <v>184</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -1413,7 +1414,7 @@
         <v>185</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -1454,7 +1455,7 @@
         <v>186</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -1823,10 +1824,10 @@
         <v>188</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DF84BD86-762B-4D46-B16D-17AC86338A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017BFB79-D56F-49CB-BB43-F76775AA17B7}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DF84BD86-762B-4D46-B16D-17AC86338A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{962A0115-AB18-46A2-BB2A-A4979A5D3A71}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -286,9 +286,6 @@
     <t>Employment in</t>
   </si>
   <si>
-    <t>employment volume</t>
-  </si>
-  <si>
     <t>Employment is</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>Online job adverts</t>
   </si>
   <si>
-    <t>number of online job adverts</t>
-  </si>
-  <si>
     <t>The number of online job adverts is</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>Businesses</t>
   </si>
   <si>
-    <t>number of businesses</t>
-  </si>
-  <si>
     <t>The number of businesses is</t>
   </si>
   <si>
@@ -391,9 +382,6 @@
     <t>FE achievements</t>
   </si>
   <si>
-    <t>number of FE achievements</t>
-  </si>
-  <si>
     <t>FE achievements are</t>
   </si>
   <si>
@@ -401,9 +389,6 @@
   </si>
   <si>
     <t>FE participation</t>
-  </si>
-  <si>
-    <t>FE participation volume</t>
   </si>
   <si>
     <t>FE participation is</t>
@@ -691,6 +676,21 @@
   </si>
   <si>
     <t>Apr 2022 - Mar 2023 data</t>
+  </si>
+  <si>
+    <t>share of businesses</t>
+  </si>
+  <si>
+    <t>FE participation share</t>
+  </si>
+  <si>
+    <t>share of FE achievements</t>
+  </si>
+  <si>
+    <t>share of online job adverts</t>
+  </si>
+  <si>
+    <t>employment volume share</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1145,30 +1145,30 @@
         <v>58</v>
       </c>
       <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" t="s">
         <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -1180,13 +1180,13 @@
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>60</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -1221,13 +1221,13 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>65</v>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -1262,13 +1262,13 @@
         <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>60</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -1303,13 +1303,13 @@
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>72</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="6" spans="1:13" ht="261.5" thickBot="1">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
@@ -1344,13 +1344,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>76</v>
@@ -1362,18 +1362,18 @@
         <v>75</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -1385,36 +1385,36 @@
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -1426,36 +1426,36 @@
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -1467,28 +1467,28 @@
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="203.5" thickBot="1">
@@ -1496,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
@@ -1508,28 +1508,28 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="145.5" thickBot="1">
@@ -1537,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -1549,28 +1549,28 @@
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="319.5" thickBot="1">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>28</v>
@@ -1590,28 +1590,28 @@
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="319.5" thickBot="1">
@@ -1619,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>28</v>
@@ -1631,28 +1631,28 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="363" thickBot="1">
@@ -1660,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>32</v>
@@ -1672,28 +1672,28 @@
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="363" thickBot="1">
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>33</v>
@@ -1713,28 +1713,28 @@
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="409.6" thickBot="1">
@@ -1742,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
@@ -1754,28 +1754,28 @@
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6" thickBot="1">
@@ -1783,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
@@ -1795,39 +1795,39 @@
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
@@ -1836,28 +1836,28 @@
         <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="263" thickBot="1">
@@ -1865,7 +1865,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1877,28 +1877,28 @@
         <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="254" thickBot="1">
@@ -1906,7 +1906,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -1918,66 +1918,66 @@
         <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M21" s="8"/>
     </row>
@@ -1986,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
@@ -1998,7 +1998,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2007,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>33</v>
@@ -2019,7 +2019,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G23" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DF84BD86-762B-4D46-B16D-17AC86338A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{962A0115-AB18-46A2-BB2A-A4979A5D3A71}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{81005228-84E7-445F-883D-C44534924468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D6E479-48CC-4D67-8A9D-1931EC28573B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,6 @@
     <t>&lt;a href=' https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/datasets/businessdemographyreferencetable'&gt;ONS Business Demography&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/1683bef5-5daa-49d7-9323-08db08498a11'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/1703fe2c-2e57-4bfe-9325-08db08498a11'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -145,28 +139,6 @@
     <t>Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including community learning, delivered by an FE institution, a training provider or within a local community.</t>
   </si>
   <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY19/20.</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY19/20.
-A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
-This means attending for all of the first two terms of the academic year (e.g. October 2020 to March 2021) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
-A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2020 and July 2021).
-Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
-Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY19/20.</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY19/20.
-A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
-This means attending for all of the first two terms of the academic year (e.g. October 2020 to March 2021) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
-A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2020 and July 2021).
-Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
-Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
-  </si>
-  <si>
     <t xml:space="preserve">The rates are the number of achievments in AY21/22 per 100,000 of the population. Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including community learning, delivered by an FE institution, a training provider or within a local community. 
 </t>
   </si>
@@ -472,16 +444,10 @@
     <t>Dec 2022 data</t>
   </si>
   <si>
-    <t>Mar 2022 data</t>
-  </si>
-  <si>
     <t>Dec 2020 - Dec 2021 data</t>
   </si>
   <si>
     <t>AY21/22 data</t>
-  </si>
-  <si>
-    <t>AY20/21 data</t>
   </si>
   <si>
     <t>Projected employment growth</t>
@@ -691,6 +657,47 @@
   </si>
   <si>
     <t>employment volume share</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY20/21.</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY20/21.
+A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
+This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
+A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2021 and July 2022).
+Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
+Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/f5995891-4e9a-439d-0d58-08dbd1400c33'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY20/21.</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/b0424f32-b140-44a8-a039-08dbd1466a44'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY20/21.
+A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
+This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
+A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2021 and July 2022).
+Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
+Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
+  </si>
+  <si>
+    <t>Mar 2023 data</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;The way it is decided when a student is at the end of 16 to 18 study has changed this year and comparisons to previous cohorts should be treated with caution. Students are included in this statistical release when they reach the end of 16 to 18 study. The ‘trigger’ rules for deciding when this happens changed in 2020/21. Further details can be found in the &lt;a href = https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;publication&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;There was no checking exercise for this cohort of students. The checking exercise ordinarily allows schools and colleges to confirm whether the students we report are at end of 16 to 18 study. This means that this data may not accurately represent whether students were at the end of 16 to 18 study in 2020/21.&lt;/li&gt;
+  &lt;li&gt;Data based on destinations of state-funded mainstream schools and colleges.&lt;/li&gt;
+ &lt;li&gt;There is no double counting across destinations, a young person is reported in one destination category only.&lt;/li&gt;
+ &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1127,10 +1134,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -1142,148 +1149,148 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="189" thickBot="1">
@@ -1291,204 +1298,204 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="261.5" thickBot="1">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="203.5" thickBot="1">
@@ -1496,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
@@ -1508,28 +1515,28 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="145.5" thickBot="1">
@@ -1537,40 +1544,40 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="319.5" thickBot="1">
@@ -1578,40 +1585,40 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="319.5" thickBot="1">
@@ -1619,40 +1626,40 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="363" thickBot="1">
@@ -1660,10 +1667,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1672,28 +1679,28 @@
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="363" thickBot="1">
@@ -1701,10 +1708,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1713,28 +1720,28 @@
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="409.6" thickBot="1">
@@ -1742,10 +1749,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1754,28 +1761,28 @@
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6" thickBot="1">
@@ -1783,10 +1790,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1795,69 +1802,69 @@
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="263" thickBot="1">
@@ -1865,119 +1872,119 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="254" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="409.6" thickBot="1">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="L21" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M21" s="8"/>
     </row>
@@ -1986,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1998,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2007,10 +2014,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -2019,7 +2026,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G23" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{81005228-84E7-445F-883D-C44534924468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D6E479-48CC-4D67-8A9D-1931EC28573B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1621E2-8717-428A-B1C0-0FDBED89DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -641,9 +641,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Apr 2022 - Mar 2023 data</t>
-  </si>
-  <si>
     <t>share of businesses</t>
   </si>
   <si>
@@ -698,6 +695,9 @@
  &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Jul 2022 - Jun 2023 data</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1175,7 +1175,7 @@
         <v>167</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -1216,7 +1216,7 @@
         <v>169</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>25</v>
@@ -1257,7 +1257,7 @@
         <v>170</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
@@ -1339,7 +1339,7 @@
         <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
@@ -1369,7 +1369,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>71</v>
@@ -1380,7 +1380,7 @@
         <v>171</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>25</v>
@@ -1421,7 +1421,7 @@
         <v>172</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>25</v>
@@ -1462,7 +1462,7 @@
         <v>173</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>25</v>
@@ -1533,7 +1533,7 @@
         <v>84</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>86</v>
@@ -1544,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>26</v>
@@ -1574,7 +1574,7 @@
         <v>87</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>90</v>
@@ -1697,7 +1697,7 @@
         <v>102</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>103</v>
@@ -1738,7 +1738,7 @@
         <v>104</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>106</v>
@@ -1875,13 +1875,13 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>165</v>
@@ -1916,16 +1916,16 @@
         <v>134</v>
       </c>
       <c r="C20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>51</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1621E2-8717-428A-B1C0-0FDBED89DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8807B596-198D-4A57-8AB5-676F372A681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -687,17 +687,17 @@
     <t>Mar 2023 data</t>
   </si>
   <si>
+    <t>Jul 2022 - Jun 2023 data</t>
+  </si>
+  <si>
     <t>&lt;ol&gt;
-&lt;li&gt;The way it is decided when a student is at the end of 16 to 18 study has changed this year and comparisons to previous cohorts should be treated with caution. Students are included in this statistical release when they reach the end of 16 to 18 study. The ‘trigger’ rules for deciding when this happens changed in 2020/21. Further details can be found in the &lt;a href = https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;publication&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;The definition of when a student is at the end of 16 to 18 study has changed this year and comparisons to previous cohorts should be treated with caution. Students are included in this statistical release when they reach the end of 16 to 18 study. The ‘trigger’ rules for deciding when this happens changed in 2020/21. Further details can be found in the &lt;a href = https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;publication&lt;/a&gt;.&lt;/li&gt;
 &lt;li&gt;There was no checking exercise for this cohort of students. The checking exercise ordinarily allows schools and colleges to confirm whether the students we report are at end of 16 to 18 study. This means that this data may not accurately represent whether students were at the end of 16 to 18 study in 2020/21.&lt;/li&gt;
   &lt;li&gt;Data based on destinations of state-funded mainstream schools and colleges.&lt;/li&gt;
  &lt;li&gt;There is no double counting across destinations, a young person is reported in one destination category only.&lt;/li&gt;
  &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>Jul 2022 - Jun 2023 data</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1175,7 +1175,7 @@
         <v>167</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -1216,7 +1216,7 @@
         <v>169</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>25</v>
@@ -1257,7 +1257,7 @@
         <v>170</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
@@ -1339,7 +1339,7 @@
         <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
@@ -1380,7 +1380,7 @@
         <v>171</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>25</v>
@@ -1421,7 +1421,7 @@
         <v>172</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>25</v>
@@ -1462,7 +1462,7 @@
         <v>173</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>25</v>
@@ -1925,7 +1925,7 @@
         <v>192</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>51</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/ross_finnie_education_gov_uk/Documents/Documents/Git Projects/Local Skills Dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8807B596-198D-4A57-8AB5-676F372A681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8807B596-198D-4A57-8AB5-676F372A681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{685A83A1-99A9-4B6F-A558-F785E58E8099}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="33720" yWindow="2970" windowWidth="29040" windowHeight="15840" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,6 @@
     <t>Dec 2022 data</t>
   </si>
   <si>
-    <t>Dec 2020 - Dec 2021 data</t>
-  </si>
-  <si>
     <t>AY21/22 data</t>
   </si>
   <si>
@@ -698,6 +695,9 @@
  &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Dec 2021 - Dec 2022 data</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -1187,13 +1187,13 @@
         <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>54</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>25</v>
@@ -1228,13 +1228,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>59</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
@@ -1269,13 +1269,13 @@
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>54</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
@@ -1310,13 +1310,13 @@
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>66</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="6" spans="1:13" ht="261.5" thickBot="1">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
@@ -1351,13 +1351,13 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>70</v>
@@ -1369,7 +1369,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>71</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>25</v>
@@ -1392,13 +1392,13 @@
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>73</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>25</v>
@@ -1433,13 +1433,13 @@
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>77</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>25</v>
@@ -1474,13 +1474,13 @@
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>81</v>
@@ -1515,13 +1515,13 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>41</v>
@@ -1533,7 +1533,7 @@
         <v>84</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>86</v>
@@ -1544,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>26</v>
@@ -1556,13 +1556,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>88</v>
@@ -1574,7 +1574,7 @@
         <v>87</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>90</v>
@@ -1585,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -1597,13 +1597,13 @@
         <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>92</v>
@@ -1626,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>26</v>
@@ -1638,13 +1638,13 @@
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>97</v>
@@ -1667,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>30</v>
@@ -1679,13 +1679,13 @@
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>101</v>
@@ -1697,7 +1697,7 @@
         <v>102</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>103</v>
@@ -1708,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>31</v>
@@ -1720,13 +1720,13 @@
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>105</v>
@@ -1738,7 +1738,7 @@
         <v>104</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>106</v>
@@ -1749,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -1761,13 +1761,13 @@
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>47</v>
@@ -1790,7 +1790,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -1802,13 +1802,13 @@
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>48</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
@@ -1843,13 +1843,13 @@
         <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>49</v>
@@ -1872,25 +1872,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>50</v>
@@ -1913,25 +1913,25 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>51</v>
@@ -1951,40 +1951,40 @@
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="G21" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>70</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="8"/>
     </row>
@@ -1993,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -2005,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2014,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>31</v>
@@ -2026,7 +2026,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G23" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/ross_finnie_education_gov_uk/Documents/Documents/Git Projects/Local Skills Dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8807B596-198D-4A57-8AB5-676F372A681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{685A83A1-99A9-4B6F-A558-F785E58E8099}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="2970" windowWidth="29040" windowHeight="15840" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="197">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>&lt;a href='https://www.nomisweb.co.uk/datasets/apsnew'&gt;Annual Population Survey&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2021-22'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbyprofessionandlocalauthorityuk'&gt;ONS Textkernel&lt;/a&gt;</t>
@@ -698,6 +695,12 @@
   </si>
   <si>
     <t>Dec 2021 - Dec 2022 data</t>
+  </si>
+  <si>
+    <t>AY22/23 data</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1122,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1134,10 +1137,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -1149,148 +1152,148 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>129</v>
-      </c>
-      <c r="M1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="189" thickBot="1">
@@ -1298,204 +1301,204 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="261.5" thickBot="1">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="203.5" thickBot="1">
@@ -1503,40 +1506,40 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="145.5" thickBot="1">
@@ -1544,40 +1547,40 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="319.5" thickBot="1">
@@ -1585,40 +1588,40 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="319.5" thickBot="1">
@@ -1626,40 +1629,40 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="363" thickBot="1">
@@ -1667,40 +1670,40 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="363" thickBot="1">
@@ -1708,40 +1711,40 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="409.6" thickBot="1">
@@ -1749,40 +1752,40 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6" thickBot="1">
@@ -1790,81 +1793,81 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="263" thickBot="1">
@@ -1872,40 +1875,40 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="409.6" thickBot="1">
@@ -1913,78 +1916,78 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="G21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="8"/>
     </row>
@@ -1993,19 +1996,19 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2014,19 +2017,19 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A66D6684-2770-4125-B438-E3BE62AD7DF1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -681,9 +681,6 @@
     <t>Mar 2023 data</t>
   </si>
   <si>
-    <t>Jul 2022 - Jun 2023 data</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
 &lt;li&gt;The definition of when a student is at the end of 16 to 18 study has changed this year and comparisons to previous cohorts should be treated with caution. Students are included in this statistical release when they reach the end of 16 to 18 study. The ‘trigger’ rules for deciding when this happens changed in 2020/21. Further details can be found in the &lt;a href = https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;publication&lt;/a&gt;.&lt;/li&gt;
 &lt;li&gt;There was no checking exercise for this cohort of students. The checking exercise ordinarily allows schools and colleges to confirm whether the students we report are at end of 16 to 18 study. This means that this data may not accurately represent whether students were at the end of 16 to 18 study in 2020/21.&lt;/li&gt;
@@ -701,6 +698,10 @@
   </si>
   <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Oct 2022-Sep 2023</t>
   </si>
 </sst>
 </file>
@@ -787,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -804,6 +805,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1177,8 +1181,8 @@
       <c r="A2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>192</v>
+      <c r="B2" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
@@ -1218,8 +1222,8 @@
       <c r="A3" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>192</v>
+      <c r="B3" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>24</v>
@@ -1259,8 +1263,8 @@
       <c r="A4" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>192</v>
+      <c r="B4" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -1300,8 +1304,8 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>192</v>
+      <c r="B5" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -1341,8 +1345,8 @@
       <c r="A6" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>192</v>
+      <c r="B6" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -1382,8 +1386,8 @@
       <c r="A7" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>192</v>
+      <c r="B7" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -1423,8 +1427,8 @@
       <c r="A8" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>192</v>
+      <c r="B8" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>24</v>
@@ -1464,8 +1468,8 @@
       <c r="A9" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>192</v>
+      <c r="B9" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
@@ -1588,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -1629,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -1670,13 +1674,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1711,13 +1715,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1752,13 +1756,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1793,13 +1797,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1928,7 +1932,7 @@
         <v>190</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>50</v>
@@ -1996,13 +2000,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -2017,13 +2021,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A66D6684-2770-4125-B438-E3BE62AD7DF1}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5653A26-6F19-4C2D-9155-F86ECD6A1434}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -517,13 +517,6 @@
   </si>
   <si>
     <t>&lt;ol&gt;
-  &lt;li&gt;Figures are for 16-64 year olds.&lt;/li&gt;
-&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
   &lt;li&gt;These statistics should be treated as experimental, as they are still subject to testing the ability to meet user needs.&lt;/li&gt;
 &lt;li&gt;Duplication of adverts can occur when the same job is posted on multiple job boards, or when multiple recruiters advertise the job at the same time.&lt;/li&gt;
 &lt;li&gt;Counts have been rounded to the nearest 5. Totals may not add due to this rounding.&lt;/li&gt;
@@ -625,16 +618,6 @@
     <t>Qualification estimates for the Jan 2022-Dec2022 survey period are temporarily suspended. The coding of qualifications has been changed to reflect an updated qualification framework. ONS have temporarily suspended the publication of these series while they update their datasets to reflect this change. They will reinstate qualification outputs as soon as they have made this update.</t>
   </si>
   <si>
-    <t>&lt;ol&gt;
-  &lt;li&gt;Employment volumes are for 16-64 year olds.&lt;/li&gt;
-&lt;li&gt;Industry split volumes are for all ages. &lt;/li&gt;
-&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
-&lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>share of businesses</t>
   </si>
   <si>
@@ -702,6 +685,22 @@
   <si>
     <t xml:space="preserve">	
 Oct 2022-Sep 2023</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Figures are for 16+ year olds.&lt;/li&gt;
+&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Employment volumes are for 16+ year olds.&lt;/li&gt;
+&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
+&lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -827,9 +826,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -867,7 +866,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -973,7 +972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1115,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1125,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1179,10 +1178,10 @@
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
@@ -1194,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>33</v>
@@ -1220,10 +1219,10 @@
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>24</v>
@@ -1235,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>34</v>
@@ -1261,10 +1260,10 @@
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -1276,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>35</v>
@@ -1305,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -1317,7 +1316,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>36</v>
@@ -1341,12 +1340,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="261.5" thickBot="1">
+    <row r="6" spans="1:13" ht="247" thickBot="1">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -1358,7 +1357,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1376,7 +1375,7 @@
         <v>68</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>70</v>
@@ -1384,10 +1383,10 @@
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -1399,7 +1398,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>37</v>
@@ -1425,10 +1424,10 @@
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>24</v>
@@ -1440,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>38</v>
@@ -1466,10 +1465,10 @@
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
@@ -1481,7 +1480,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>39</v>
@@ -1522,7 +1521,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>40</v>
@@ -1540,7 +1539,7 @@
         <v>83</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>85</v>
@@ -1551,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>25</v>
@@ -1563,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>41</v>
@@ -1581,7 +1580,7 @@
         <v>86</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>89</v>
@@ -1592,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -1604,7 +1603,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>42</v>
@@ -1633,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -1645,7 +1644,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>43</v>
@@ -1674,19 +1673,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>44</v>
@@ -1704,7 +1703,7 @@
         <v>101</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>102</v>
@@ -1715,19 +1714,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>45</v>
@@ -1745,7 +1744,7 @@
         <v>103</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>105</v>
@@ -1756,19 +1755,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>46</v>
@@ -1797,19 +1796,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>47</v>
@@ -1835,13 +1834,13 @@
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
@@ -1850,7 +1849,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>48</v>
@@ -1882,16 +1881,16 @@
         <v>132</v>
       </c>
       <c r="C19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>49</v>
@@ -1923,16 +1922,16 @@
         <v>132</v>
       </c>
       <c r="C20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>50</v>
@@ -1958,22 +1957,22 @@
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>133</v>
@@ -2000,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2021,19 +2020,19 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5653A26-6F19-4C2D-9155-F86ECD6A1434}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210FF409-9903-4ECC-806E-3FAE1260A488}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -688,14 +688,15 @@
   </si>
   <si>
     <t>&lt;ol&gt;
-  &lt;li&gt;Figures are for 16+ year olds.&lt;/li&gt;
+  &lt;li&gt;Figures are for 16-64 year olds.&lt;/li&gt;
 &lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
     <t>&lt;ol&gt;
-  &lt;li&gt;Employment volumes are for 16+ year olds.&lt;/li&gt;
+  &lt;li&gt;Employment volumes are for 16-64 year olds.&lt;/li&gt;
+&lt;li&gt;Industry and occupation split volumes are for all ages.&lt;/li&gt;
 &lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
@@ -1124,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1340,7 +1341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="247" thickBot="1">
+    <row r="6" spans="1:13" ht="276" thickBot="1">
       <c r="A6" t="s">
         <v>165</v>
       </c>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210FF409-9903-4ECC-806E-3FAE1260A488}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03AA0741-B64A-4F4A-BBA0-5F03ED59DB39}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -99,13 +99,7 @@
 Achievements are the number of learners who successfully complete an individual aim in an academic year.</t>
   </si>
   <si>
-    <t>This data is experimental. ONS are continuing to develop these statistics and aim to move to SOC profession grouping and publish data regularly. The timescale for the next release has not yet been agreed.</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.nomisweb.co.uk/datasets/apsnew'&gt;Annual Population Survey&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbyprofessionandlocalauthorityuk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;a href='https://www.nomisweb.co.uk/datasets/idbrent'&gt;ONS UK Business Counts&lt;/a&gt;</t>
@@ -436,9 +430,6 @@
   </si>
   <si>
     <t>Growth from 2023 to 2035</t>
-  </si>
-  <si>
-    <t>Dec 2022 data</t>
   </si>
   <si>
     <t>AY21/22 data</t>
@@ -702,6 +693,15 @@
 &lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
 &lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>May 2023 data</t>
+  </si>
+  <si>
+    <t>This data is experimental. ONS are continuing to develop these statistics and aim to publish data regularly. The timescale for the next release has not yet been agreed.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1141,10 +1141,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -1156,148 +1156,148 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>127</v>
-      </c>
-      <c r="L1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="189" thickBot="1">
@@ -1305,204 +1305,204 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="276" thickBot="1">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="203.5" thickBot="1">
@@ -1510,40 +1510,40 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="145.5" thickBot="1">
@@ -1551,40 +1551,40 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="319.5" thickBot="1">
@@ -1592,40 +1592,40 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="319.5" thickBot="1">
@@ -1633,40 +1633,40 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="363" thickBot="1">
@@ -1674,40 +1674,40 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="363" thickBot="1">
@@ -1715,40 +1715,40 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="409.6" thickBot="1">
@@ -1756,40 +1756,40 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6" thickBot="1">
@@ -1797,81 +1797,81 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="348.5" thickBot="1">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="263" thickBot="1">
@@ -1879,40 +1879,40 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="409.6" thickBot="1">
@@ -1920,78 +1920,78 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="G20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="F21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="8"/>
     </row>
@@ -2000,19 +2000,19 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2021,19 +2021,19 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03AA0741-B64A-4F4A-BBA0-5F03ED59DB39}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{918DC760-AC80-4D89-AAAA-8674A7C96F73}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{918DC760-AC80-4D89-AAAA-8674A7C96F73}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DE0A0F-7967-43C9-A8DC-6FCEE15FDF81}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -674,10 +674,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-Oct 2022-Sep 2023</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;Figures are for 16-64 year olds.&lt;/li&gt;
 &lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
@@ -702,6 +698,10 @@
   </si>
   <si>
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Jan 2023-Dec 2023</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1182,7 +1182,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1194,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>31</v>
@@ -1223,7 +1223,7 @@
         <v>163</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1235,7 +1235,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>32</v>
@@ -1264,7 +1264,7 @@
         <v>164</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1276,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>33</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1317,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>34</v>
@@ -1346,7 +1346,7 @@
         <v>162</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1358,7 +1358,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1387,7 +1387,7 @@
         <v>165</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1399,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>35</v>
@@ -1428,7 +1428,7 @@
         <v>166</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1440,7 +1440,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>36</v>
@@ -1469,7 +1469,7 @@
         <v>167</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1481,7 +1481,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>37</v>
@@ -1510,16 +1510,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>154</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{3EA00DB4-BDF1-4C0F-8562-3CC5AF44C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DE0A0F-7967-43C9-A8DC-6FCEE15FDF81}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585E6D72-6CB7-4007-9BAD-E71BD6BB9E19}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -535,16 +535,6 @@
  &lt;li&gt;Learners achieving more than one course will appear only once in the grand total.&lt;/li&gt;
  &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-  &lt;li&gt;Figures are for 16-64 year olds.&lt;/li&gt;
-&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
- &lt;li&gt;NVQ3 or above consists of NVQ3 and NVQ4. &lt;/li&gt;
- &lt;li&gt;NVQ3: 2+ A Levels/VCEs, 4+ AS Levels, Higher School Certificate, Progression/Advanced Diploma, Welsh Baccalaureate Advanced Diploma, NVQ Level 3; Advanced GNVQ, City and Guilds Advanced Craft, ONC, OND, BTEC National, RSA Advanced Diploma.&lt;/li&gt;
- &lt;li&gt;NVQ4 or above: Degree (for example BA, BSc), Higher Degree (for example MA, PhD, PGCE), NVQ Level 4-5, HNC, HND, RSA Higher Diploma, BTEC Higher level, Foundation degree (NI), Professional qualifications (for example teaching, nursing, accountancy).&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
@@ -603,12 +593,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Jan-Dec 2021 data</t>
-  </si>
-  <si>
-    <t>Qualification estimates for the Jan 2022-Dec2022 survey period are temporarily suspended. The coding of qualifications has been changed to reflect an updated qualification framework. ONS have temporarily suspended the publication of these series while they update their datasets to reflect this change. They will reinstate qualification outputs as soon as they have made this update.</t>
-  </si>
-  <si>
     <t>share of businesses</t>
   </si>
   <si>
@@ -702,6 +686,51 @@
   <si>
     <t xml:space="preserve">	
 Jan 2023-Dec 2023</t>
+  </si>
+  <si>
+    <t>L4PlusRate</t>
+  </si>
+  <si>
+    <t>Jan-Dec 2023 data</t>
+  </si>
+  <si>
+    <t>The proportion of people qualified at Level 4 or above</t>
+  </si>
+  <si>
+    <t>are the proportions of people qualified at Level 4 or above changing</t>
+  </si>
+  <si>
+    <t>Qualified at Level 4 or above</t>
+  </si>
+  <si>
+    <t>the proportions of people qualified at Level 4 or above</t>
+  </si>
+  <si>
+    <t>proportion of people qualified at Level 4 or above</t>
+  </si>
+  <si>
+    <t>The proportion of people qualified at Level 4 or above is</t>
+  </si>
+  <si>
+    <t>Estimates for the highest qualification are derived from the Labour Force Survey (LFS). In Q1 2022 (January to March 2022) the highest qualification variable (HIQUAL) was revised, therefore figures published after this are not directly comparable to previous years.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Figures are for 16-64 year olds.&lt;/li&gt;
+&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+ &lt;li&gt;Level 3 or above consists of: level 3 (e.g. A Levels, T Levels, Highers), level 4 (e.g. higher apprenticeship) or above (e.g. higher national diploma, degree apprenticeship, bachelor's, master's, doctorate). &lt;/li&gt;
+ &lt;li&gt;From 2022 on qualification level is defined by the National Qualifications Framework (NQF). Before that National Vocational Qualifications (NVQ) is used. &lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Figures are for 16-64 year olds.&lt;/li&gt;
+&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+ &lt;li&gt;Level 4 or above consists of: level 4 (e.g. higher apprenticeship) or above (e.g. higher national diploma, degree apprenticeship, bachelor's, master's, doctorate). &lt;/li&gt;
+ &lt;li&gt;From 2022 on qualification level is defined by the National Qualifications Framework (NQF). Before that National Vocational Qualifications (NVQ) is used. &lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1179,10 +1208,10 @@
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1194,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>31</v>
@@ -1220,10 +1249,10 @@
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1235,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>32</v>
@@ -1261,10 +1290,10 @@
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1276,7 +1305,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>33</v>
@@ -1305,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1317,7 +1346,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>34</v>
@@ -1343,10 +1372,10 @@
     </row>
     <row r="6" spans="1:13" ht="276" thickBot="1">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1358,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1376,7 +1405,7 @@
         <v>66</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>68</v>
@@ -1384,10 +1413,10 @@
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1399,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>35</v>
@@ -1425,10 +1454,10 @@
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1440,7 +1469,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>36</v>
@@ -1466,10 +1495,10 @@
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1481,7 +1510,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>37</v>
@@ -1510,16 +1539,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>154</v>
@@ -1540,7 +1569,7 @@
         <v>81</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>83</v>
@@ -1551,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1581,7 +1610,7 @@
         <v>84</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>87</v>
@@ -1592,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1633,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1674,13 +1703,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1704,7 +1733,7 @@
         <v>99</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>100</v>
@@ -1715,13 +1744,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1745,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>103</v>
@@ -1756,13 +1785,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1797,13 +1826,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1833,15 +1862,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="348.5" thickBot="1">
+    <row r="18" spans="1:13" ht="290.5" thickBot="1">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>174</v>
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1850,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>46</v>
@@ -1874,160 +1903,180 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="263" thickBot="1">
+    <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="263" thickBot="1">
+      <c r="A20" t="s">
         <v>12</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="409.6" thickBot="1">
-      <c r="A20" t="s">
-        <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" t="s">
-        <v>171</v>
+        <v>181</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="409.6" thickBot="1">
       <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="409.6" thickBot="1">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" ht="363" thickBot="1">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -2036,6 +2085,27 @@
         <v>157</v>
       </c>
       <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="363" thickBot="1">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585E6D72-6CB7-4007-9BAD-E71BD6BB9E19}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F9D8F88-5EE8-4A66-B91C-E3064D41B8D4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -508,14 +508,6 @@
   </si>
   <si>
     <t>&lt;ol&gt;
-  &lt;li&gt;These statistics should be treated as experimental, as they are still subject to testing the ability to meet user needs.&lt;/li&gt;
-&lt;li&gt;Duplication of adverts can occur when the same job is posted on multiple job boards, or when multiple recruiters advertise the job at the same time.&lt;/li&gt;
-&lt;li&gt;Counts have been rounded to the nearest 5. Totals may not add due to this rounding.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
   &lt;li&gt;Overall total may not equal the sum of all industries due to rounding and suppression.&lt;/li&gt;
  &lt;li&gt;Unregistered businesses that are not large enough to be registered for VAT or PAYE are not included.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
@@ -678,9 +670,6 @@
     <t>May 2023 data</t>
   </si>
   <si>
-    <t>This data is experimental. ONS are continuing to develop these statistics and aim to publish data regularly. The timescale for the next release has not yet been agreed.</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
@@ -730,6 +719,17 @@
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
  &lt;li&gt;Level 4 or above consists of: level 4 (e.g. higher apprenticeship) or above (e.g. higher national diploma, degree apprenticeship, bachelor's, master's, doctorate). &lt;/li&gt;
  &lt;li&gt;From 2022 on qualification level is defined by the National Qualifications Framework (NQF). Before that National Vocational Qualifications (NVQ) is used. &lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Further data will be published in summer 2024.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;These statistics should be treated as  official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs.&lt;/li&gt;
+&lt;li&gt;Duplication of adverts can occur when the same job is posted on multiple job boards, or when multiple recruiters advertise the job at the same time.&lt;/li&gt;
+&lt;li&gt;Counts have been rounded to the nearest 5. Totals may not add due to this rounding.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
 </sst>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1223,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>31</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1264,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>32</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="4" spans="1:13" ht="189" thickBot="1">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1305,7 +1305,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>33</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1346,7 +1346,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>34</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="6" spans="1:13" ht="276" thickBot="1">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1387,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>66</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>68</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1428,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>35</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1469,7 +1469,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>36</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1510,7 +1510,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>37</v>
@@ -1534,24 +1534,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="203.5" thickBot="1">
+    <row r="10" spans="1:13" ht="218" thickBot="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>191</v>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>38</v>
@@ -1569,7 +1569,7 @@
         <v>81</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>83</v>
@@ -1580,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1592,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>39</v>
@@ -1610,7 +1610,7 @@
         <v>84</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>87</v>
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1633,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>40</v>
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1674,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>41</v>
@@ -1703,19 +1703,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>42</v>
@@ -1733,7 +1733,7 @@
         <v>99</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>100</v>
@@ -1744,19 +1744,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>43</v>
@@ -1774,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>103</v>
@@ -1785,19 +1785,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>44</v>
@@ -1826,19 +1826,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>45</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="18" spans="1:13" ht="290.5" thickBot="1">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1879,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>46</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1920,28 +1920,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">
@@ -1952,16 +1952,16 @@
         <v>129</v>
       </c>
       <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>47</v>
@@ -1993,16 +1993,16 @@
         <v>129</v>
       </c>
       <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>48</v>
@@ -2028,22 +2028,22 @@
     </row>
     <row r="22" spans="1:13" ht="409.6" thickBot="1">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>130</v>
@@ -2070,19 +2070,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2091,19 +2091,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F9D8F88-5EE8-4A66-B91C-E3064D41B8D4}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C33E2C-6162-4801-9431-A613144F57FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -726,9 +726,10 @@
   </si>
   <si>
     <t>&lt;ol&gt;
-  &lt;li&gt;These statistics should be treated as  official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs.&lt;/li&gt;
-&lt;li&gt;Duplication of adverts can occur when the same job is posted on multiple job boards, or when multiple recruiters advertise the job at the same time.&lt;/li&gt;
+  &lt;li&gt;These statistics should be treated as official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs and may be modified in the future.&lt;/li&gt;
 &lt;li&gt;Counts have been rounded to the nearest 5. Totals may not add due to this rounding.&lt;/li&gt;
+&lt;li&gt;Where the same job is identified as being advertised through multiple adverts it is only counted once.&lt;/li&gt;
+&lt;li&gt;The method for allocating jobs to occupations (SOC 2020) is based on the job title of the advert and will be developed further in future releases.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
@@ -1154,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1534,7 +1535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="218" thickBot="1">
+    <row r="10" spans="1:13" ht="247" thickBot="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C33E2C-6162-4801-9431-A613144F57FB}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBAB77D5-C672-4195-BC7F-F8B377B7CFE6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="207">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -657,16 +657,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;ol&gt;
-  &lt;li&gt;Employment volumes are for 16-64 year olds.&lt;/li&gt;
-&lt;li&gt;Industry and occupation split volumes are for all ages.&lt;/li&gt;
-&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
-&lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>May 2023 data</t>
   </si>
   <si>
@@ -731,6 +721,30 @@
 &lt;li&gt;Where the same job is identified as being advertised through multiple adverts it is only counted once.&lt;/li&gt;
 &lt;li&gt;The method for allocating jobs to occupations (SOC 2020) is based on the job title of the advert and will be developed further in future releases.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Figures are for all ages (16+).&lt;/li&gt;
+&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Figures are for all ages (16+).&lt;/li&gt;
+&lt;li&gt;The unemployment rate is not the proportion of the total population that is unemployed. It is the proportion of the economically active population (that is, those in work plus those seeking and available to work) that is unemployed.&lt;/li&gt;
+&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Figures are for all ages (16+).&lt;/li&gt;
+&lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
+&lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
 </sst>
@@ -1155,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1212,7 +1226,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1253,7 +1267,7 @@
         <v>161</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1289,12 +1303,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="189" thickBot="1">
+    <row r="4" spans="1:13" ht="261.5" thickBot="1">
       <c r="A4" t="s">
         <v>162</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1306,7 +1320,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>33</v>
@@ -1335,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1371,12 +1385,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="276" thickBot="1">
+    <row r="6" spans="1:13" ht="247" thickBot="1">
       <c r="A6" t="s">
         <v>160</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1388,7 +1402,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1417,7 +1431,7 @@
         <v>163</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1429,7 +1443,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>35</v>
@@ -1458,7 +1472,7 @@
         <v>164</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1470,7 +1484,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>36</v>
@@ -1499,7 +1513,7 @@
         <v>165</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1540,19 +1554,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>38</v>
@@ -1868,10 +1882,10 @@
         <v>167</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1880,7 +1894,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>46</v>
@@ -1906,13 +1920,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1921,28 +1935,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C33E2C-6162-4801-9431-A613144F57FB}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60622EA9-C8CE-40DF-A452-F320AE425050}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="215">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -732,6 +732,45 @@
 &lt;li&gt;The method for allocating jobs to occupations (SOC 2020) is based on the job title of the advert and will be developed further in future releases.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>achievementAims</t>
+  </si>
+  <si>
+    <t>are FE achievement aim volumes changing</t>
+  </si>
+  <si>
+    <t>FE achievement aims</t>
+  </si>
+  <si>
+    <t>share of FE achievement aims</t>
+  </si>
+  <si>
+    <t>FE achievement aims are</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Total achievements is the count of programme level aims completed at any point during the stated academic period.&lt;/li&gt;
+&lt;li&gt; Education and Training and Apprenticeship aims are 19 plus. &lt;/li&gt;
+ &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>FE achievements aims</t>
+  </si>
+  <si>
+    <t>The number of FE achievement aims in</t>
+  </si>
+  <si>
+    <t>Further education and skills included are 19+ apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community.
+FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
+Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
+Community learning funds a wide range of non-formal courses (e.g. IT or employability skills) and activity targeted at deprived areas or disadvantaged groups. They can be offered by local authorities, colleges, community groups.
+Achievements are the number of programme aims successfully completed in an invidual aim in an academic year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Further education and skills include 19+ apprenticeships and publicly-funded adult (19+) learning, including community learning, delivered by an FE institution, a training provider or within a local community.</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1740,56 +1779,56 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="363" thickBot="1">
+    <row r="15" spans="1:13" ht="348.5" thickBot="1">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
+      <c r="C15" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D15" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="409.6" thickBot="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="363" thickBot="1">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>186</v>
@@ -1801,36 +1840,36 @@
         <v>156</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6" thickBot="1">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>186</v>
@@ -1842,71 +1881,71 @@
         <v>156</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409.6" thickBot="1">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="290.5" thickBot="1">
-      <c r="A18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>193</v>
@@ -1921,181 +1960,201 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="290.5" thickBot="1">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="263" thickBot="1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:13" ht="263" thickBot="1">
+      <c r="A21" t="s">
         <v>12</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="409.6" thickBot="1">
-      <c r="A21" t="s">
-        <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="409.6" thickBot="1">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="409.6" thickBot="1">
       <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="409.6" thickBot="1">
+      <c r="A24" t="s">
         <v>8</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="363" thickBot="1">
-      <c r="A24" t="s">
-        <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>186</v>
@@ -2107,6 +2166,27 @@
         <v>156</v>
       </c>
       <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" ht="363" thickBot="1">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60622EA9-C8CE-40DF-A452-F320AE425050}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C33E2C-6162-4801-9431-A613144F57FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -732,45 +732,6 @@
 &lt;li&gt;The method for allocating jobs to occupations (SOC 2020) is based on the job title of the advert and will be developed further in future releases.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>achievementAims</t>
-  </si>
-  <si>
-    <t>are FE achievement aim volumes changing</t>
-  </si>
-  <si>
-    <t>FE achievement aims</t>
-  </si>
-  <si>
-    <t>share of FE achievement aims</t>
-  </si>
-  <si>
-    <t>FE achievement aims are</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-  &lt;li&gt;Total achievements is the count of programme level aims completed at any point during the stated academic period.&lt;/li&gt;
-&lt;li&gt; Education and Training and Apprenticeship aims are 19 plus. &lt;/li&gt;
- &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>FE achievements aims</t>
-  </si>
-  <si>
-    <t>The number of FE achievement aims in</t>
-  </si>
-  <si>
-    <t>Further education and skills included are 19+ apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community.
-FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
-Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
-Community learning funds a wide range of non-formal courses (e.g. IT or employability skills) and activity targeted at deprived areas or disadvantaged groups. They can be offered by local authorities, colleges, community groups.
-Achievements are the number of programme aims successfully completed in an invidual aim in an academic year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Further education and skills include 19+ apprenticeships and publicly-funded adult (19+) learning, including community learning, delivered by an FE institution, a training provider or within a local community.</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1779,56 +1740,56 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="348.5" thickBot="1">
+    <row r="15" spans="1:13" ht="363" thickBot="1">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>214</v>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="363" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="409.6" thickBot="1">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>28</v>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>186</v>
@@ -1840,36 +1801,36 @@
         <v>156</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6" thickBot="1">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>186</v>
@@ -1881,71 +1842,71 @@
         <v>156</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="409.6" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="290.5" thickBot="1">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>193</v>
@@ -1960,201 +1921,181 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="290.5" thickBot="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="263" thickBot="1">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
+        <v>178</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="263" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="409.6" thickBot="1">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="409.6" thickBot="1">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>181</v>
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>169</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="409.6" thickBot="1">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="409.6" thickBot="1">
+        <v>156</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="363" thickBot="1">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
+      <c r="C24" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>186</v>
@@ -2166,27 +2107,6 @@
         <v>156</v>
       </c>
       <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="363" thickBot="1">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{F507649C-394F-469D-AF4E-B1DD86CEE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBAB77D5-C672-4195-BC7F-F8B377B7CFE6}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{428EF137-C7FF-4A16-A949-62F95A887C1A}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -124,20 +124,9 @@
 Rates are per 100,000 people</t>
   </si>
   <si>
-    <t xml:space="preserve"> Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including community learning, delivered by an FE institution, a training provider or within a local community.</t>
-  </si>
-  <si>
     <t>Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including community learning, delivered by an FE institution, a training provider or within a local community.</t>
   </si>
   <si>
-    <t xml:space="preserve">The rates are the number of achievments in AY21/22 per 100,000 of the population. Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including community learning, delivered by an FE institution, a training provider or within a local community. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The rates are the number of participants in AY21/22 per 100,000 of the population. Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including community learning, delivered by an FE institution, a training provider or within a local community. 
-</t>
-  </si>
-  <si>
     <t>The employment rate</t>
   </si>
   <si>
@@ -337,9 +326,6 @@
   </si>
   <si>
     <t>Business death rates are</t>
-  </si>
-  <si>
-    <t>The number of FE achievements</t>
   </si>
   <si>
     <t>FE achievements</t>
@@ -746,6 +732,63 @@
 &lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
 &lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator shows 19+ further education and skills participation rate per 100,000 population. Further education and skills include apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator shows 19+ further education and skills achievements rate per 100,000 population. Further education and skills include apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community. 
+</t>
+  </si>
+  <si>
+    <t>FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
+Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
+Community learning funds a wide range of non-formal courses (e.g. IT or employability skills) and activity targeted at deprived areas or disadvantaged groups. They can be offered by local authorities, colleges, community groups.
+Achievements are the number of learners who successfully complete an individual aim in an academic year.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Achievements included are learners that completed their qualification at any point during the stated academic period.&lt;/li&gt;
+ &lt;li&gt;Learners achieving more than one course will appear only once in totals.&lt;/li&gt;
+ &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Participation includes learners that particpated at any point during the stated academic period.&lt;/li&gt;
+ &lt;li&gt;Learners participating in more than one course will appear only once in the grand total.&lt;/li&gt;
+ &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>The FE achievement rate per 100,000 in</t>
+  </si>
+  <si>
+    <t>The FE participation rate per 100,000 in</t>
+  </si>
+  <si>
+    <t>The number of FE achievements in</t>
+  </si>
+  <si>
+    <t>FE participation in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator shows 19+ further education and skills learner participation. Further education and skills include apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator shows 19+ further education and skills learner achievements. Further education and skills include apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community. </t>
+  </si>
+  <si>
+    <t>The proportion of people qualified at Level 4 or above in</t>
+  </si>
+  <si>
+    <t>The proportion of people qualified at Level 3 or above in</t>
+  </si>
+  <si>
+    <t>The number of online job adverts in</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1213,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1200,33 +1243,33 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>123</v>
-      </c>
-      <c r="J1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="189" thickBot="1">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1238,36 +1281,36 @@
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="189" thickBot="1">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1279,36 +1322,36 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="261.5" thickBot="1">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1320,28 +1363,28 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="189" thickBot="1">
@@ -1349,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1361,36 +1404,36 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="247" thickBot="1">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1402,36 +1445,36 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="189" thickBot="1">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1443,36 +1486,36 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="189" thickBot="1">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1484,36 +1527,36 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="189" thickBot="1">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1525,28 +1568,28 @@
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="247" thickBot="1">
@@ -1554,40 +1597,40 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="145.5" thickBot="1">
@@ -1595,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1607,28 +1650,28 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="319.5" thickBot="1">
@@ -1636,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1648,28 +1691,28 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="319.5" thickBot="1">
@@ -1677,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1689,28 +1732,28 @@
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="363" thickBot="1">
@@ -1718,40 +1761,40 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="363" thickBot="1">
@@ -1759,40 +1802,40 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>181</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="409.6" thickBot="1">
@@ -1800,40 +1843,40 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6" thickBot="1">
@@ -1841,51 +1884,51 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="290.5" thickBot="1">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1894,39 +1937,39 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1935,28 +1978,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">
@@ -1964,40 +2007,40 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6" thickBot="1">
@@ -2005,78 +2048,78 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="G21" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="409.6" thickBot="1">
       <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="G22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="L22" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -2085,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2106,19 +2149,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G24" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{428EF137-C7FF-4A16-A949-62F95A887C1A}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9906C0FF-8D5C-4A63-A406-4F2D730B4305}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -643,9 +643,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>May 2023 data</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
@@ -698,9 +695,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Further data will be published in summer 2024.</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;These statistics should be treated as official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs and may be modified in the future.&lt;/li&gt;
 &lt;li&gt;Counts have been rounded to the nearest 5. Totals may not add due to this rounding.&lt;/li&gt;
@@ -789,6 +783,12 @@
   </si>
   <si>
     <t>The number of online job adverts in</t>
+  </si>
+  <si>
+    <t>Dec 2023 data</t>
+  </si>
+  <si>
+    <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Further data will be published in late summer 2024.</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1269,7 +1269,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1310,7 +1310,7 @@
         <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1351,7 +1351,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1363,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1433,7 +1433,7 @@
         <v>156</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1445,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>159</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
@@ -1515,7 +1515,7 @@
         <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1527,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
@@ -1556,7 +1556,7 @@
         <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1597,19 +1597,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1618,7 +1618,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1764,7 +1764,7 @@
         <v>181</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
         <v>182</v>
@@ -1782,7 +1782,7 @@
         <v>142</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1805,7 +1805,7 @@
         <v>181</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
         <v>182</v>
@@ -1823,7 +1823,7 @@
         <v>143</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1846,16 +1846,16 @@
         <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
         <v>182</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
@@ -1864,7 +1864,7 @@
         <v>144</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1887,16 +1887,16 @@
         <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
         <v>182</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -1905,7 +1905,7 @@
         <v>145</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1925,10 +1925,10 @@
         <v>163</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1937,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>43</v>
@@ -1946,7 +1946,7 @@
         <v>146</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1978,28 +1978,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9906C0FF-8D5C-4A63-A406-4F2D730B4305}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F5FA0A-2F72-49F7-8083-D48CAC9CA177}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -646,10 +646,6 @@
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-Jan 2023-Dec 2023</t>
-  </si>
-  <si>
     <t>L4PlusRate</t>
   </si>
   <si>
@@ -789,6 +785,9 @@
   </si>
   <si>
     <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Further data will be published in late summer 2024.</t>
+  </si>
+  <si>
+    <t>Apr 2023 - Mar 2024</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1212,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1269,7 +1268,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1310,7 +1309,7 @@
         <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1351,7 +1350,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1363,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
@@ -1392,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1433,7 +1432,7 @@
         <v>156</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1445,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1474,7 +1473,7 @@
         <v>159</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1486,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
@@ -1515,7 +1514,7 @@
         <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1527,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
@@ -1556,7 +1555,7 @@
         <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1597,10 +1596,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>184</v>
@@ -1609,7 +1608,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1618,7 +1617,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1764,7 +1763,7 @@
         <v>181</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
         <v>182</v>
@@ -1782,7 +1781,7 @@
         <v>142</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1805,7 +1804,7 @@
         <v>181</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
         <v>182</v>
@@ -1823,7 +1822,7 @@
         <v>143</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1846,16 +1845,16 @@
         <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
         <v>182</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
@@ -1864,7 +1863,7 @@
         <v>144</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1887,16 +1886,16 @@
         <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
         <v>182</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -1905,7 +1904,7 @@
         <v>145</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1925,10 +1924,10 @@
         <v>163</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1937,7 +1936,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>43</v>
@@ -1946,7 +1945,7 @@
         <v>146</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1963,13 +1962,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1978,28 +1977,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F5FA0A-2F72-49F7-8083-D48CAC9CA177}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFFB5208-45FA-4575-899B-A7F29671352D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="216">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -552,23 +552,6 @@
   </si>
   <si>
     <t>L3PlusRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projections are from Skills Imperative 2035. The occupation projections are based on ONS survey data that has been impacted by a coding error, so should be used with caution.  </t>
-  </si>
-  <si>
-    <t>Data presented is the baseline projection. Alternative scenarios are available from NFER.  The occupation projections are based on ONS survey data that has been impacted by a coding error, so should be used with caution.  For more information on the miscoding of occupation data see this  &lt;a href = 'https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/articles/theimpactofmiscodingofoccupationaldatainofficefornationalstatisticssocialsurveysuk/2022-09-26'&gt;ONS article&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-  &lt;li&gt;The projections presented in this Workbook are calculated from a number of different data sources, using a variety of econometric and statistical techniques. As a result, precise margins of error cannot be assigned to the estimates. For further details, see the Technical Report. &lt;/li&gt;
-&lt;li&gt;The occupation projections are based on ONS survey data that has been impacted by a coding error, so should be used with caution.  For more information on the miscoding of occupation data see this  &lt;a href = 'https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/articles/theimpactofmiscodingofoccupationaldatainofficefornationalstatisticssocialsurveysuk/2022-09-26'&gt;ONS article&lt;/a&gt;.&lt;/li&gt;
- &lt;li&gt;Industries are based on SIC 2007 codes. &lt;/li&gt;
- &lt;li&gt;Time series of the breakdowns can be downloaded in the data download section or in the publication. &lt;/li&gt;
- &lt;li&gt;Further breakdowns are available in the published data eg gender, full-time/part-time, as well combined breakdowns. Replacement demand is also available. &lt;/li&gt;
- &lt;li&gt;The projections were largely prepared before the Russian invasion of Ukraine, its subsequent economic effects and policy responses to these events. These factors will have a significant impact on the short-term prospects for the British economy and labour market &lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
   </si>
   <si>
     <t>share of businesses</t>
@@ -788,6 +771,19 @@
   </si>
   <si>
     <t>Apr 2023 - Mar 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data presented is the baseline projection. Alternative scenarios are available from NFER. </t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;The projections presented in this Workbook are calculated from a number of different data sources, using a variety of econometric and statistical techniques. As a result, precise margins of error cannot be assigned to the estimates. For further details, see the Technical Report. &lt;/li&gt;
+ &lt;li&gt;Industries are based on SIC 2007 codes. &lt;/li&gt;
+ &lt;li&gt;Time series of the breakdowns can be downloaded in the data download section or in the publication. &lt;/li&gt;
+ &lt;li&gt;Further breakdowns are available in the published data eg gender, full-time/part-time, as well combined breakdowns. Replacement demand is also available. &lt;/li&gt;
+ &lt;li&gt;The projections were largely prepared before the Russian invasion of Ukraine, its subsequent economic effects and policy responses to these events. These factors will have a significant impact on the short-term prospects for the British economy and labour market &lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1268,7 +1264,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1280,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
@@ -1309,7 +1305,7 @@
         <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1321,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
@@ -1350,7 +1346,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1362,7 +1358,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
@@ -1391,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1403,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>31</v>
@@ -1432,7 +1428,7 @@
         <v>156</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1444,7 +1440,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1462,7 +1458,7 @@
         <v>63</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>65</v>
@@ -1473,7 +1469,7 @@
         <v>159</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1485,7 +1481,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
@@ -1514,7 +1510,7 @@
         <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1526,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
@@ -1555,7 +1551,7 @@
         <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1567,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>34</v>
@@ -1596,19 +1592,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1617,7 +1613,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1626,7 +1622,7 @@
         <v>78</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>80</v>
@@ -1637,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1667,7 +1663,7 @@
         <v>81</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>84</v>
@@ -1678,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1719,7 +1715,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1760,13 +1756,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1781,7 +1777,7 @@
         <v>142</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1790,7 +1786,7 @@
         <v>95</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>96</v>
@@ -1801,13 +1797,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1822,7 +1818,7 @@
         <v>143</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1831,7 +1827,7 @@
         <v>97</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>99</v>
@@ -1842,19 +1838,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
@@ -1863,7 +1859,7 @@
         <v>144</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1883,19 +1879,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -1904,7 +1900,7 @@
         <v>145</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1924,10 +1920,10 @@
         <v>163</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1936,7 +1932,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>43</v>
@@ -1945,7 +1941,7 @@
         <v>146</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1962,13 +1958,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1977,28 +1973,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">
@@ -2009,13 +2005,13 @@
         <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>153</v>
@@ -2050,16 +2046,16 @@
         <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2083,7 +2079,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="409.6" thickBot="1">
+    <row r="22" spans="1:13" ht="334" thickBot="1">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -2091,16 +2087,16 @@
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>126</v>
@@ -2127,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -2148,13 +2144,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFFB5208-45FA-4575-899B-A7F29671352D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C4FBB22-05F8-454F-87E0-9ACAAF5FD331}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -773,9 +773,6 @@
     <t>Apr 2023 - Mar 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Data presented is the baseline projection. Alternative scenarios are available from NFER. </t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;The projections presented in this Workbook are calculated from a number of different data sources, using a variety of econometric and statistical techniques. As a result, precise margins of error cannot be assigned to the estimates. For further details, see the Technical Report. &lt;/li&gt;
  &lt;li&gt;Industries are based on SIC 2007 codes. &lt;/li&gt;
@@ -784,6 +781,9 @@
  &lt;li&gt;The projections were largely prepared before the Russian invasion of Ukraine, its subsequent economic effects and policy responses to these events. These factors will have a significant impact on the short-term prospects for the British economy and labour market &lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Data presented is the baseline projection. Alternative scenarios are available within the published data for UK only.</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2093,10 +2093,10 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>126</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C4FBB22-05F8-454F-87E0-9ACAAF5FD331}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B2DE84-3BF0-4212-92CB-4C45AF9D1D27}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -770,9 +770,6 @@
     <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Further data will be published in late summer 2024.</t>
   </si>
   <si>
-    <t>Apr 2023 - Mar 2024</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;The projections presented in this Workbook are calculated from a number of different data sources, using a variety of econometric and statistical techniques. As a result, precise margins of error cannot be assigned to the estimates. For further details, see the Technical Report. &lt;/li&gt;
  &lt;li&gt;Industries are based on SIC 2007 codes. &lt;/li&gt;
@@ -785,12 +782,15 @@
   <si>
     <t>Data presented is the baseline projection. Alternative scenarios are available within the published data for UK only.</t>
   </si>
+  <si>
+    <t>Jul 2023-Jun 2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,6 +832,12 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -888,9 +894,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1264,7 +1268,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1305,7 +1309,7 @@
         <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1346,7 +1350,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1387,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1428,7 +1432,7 @@
         <v>156</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1469,7 +1473,7 @@
         <v>159</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1510,7 +1514,7 @@
         <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1551,7 +1555,7 @@
         <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -2093,10 +2097,10 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>126</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="114_{0599F05F-4BCD-4BD7-8E73-6FC6B45720D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B2DE84-3BF0-4212-92CB-4C45AF9D1D27}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3411C163-F5C4-415A-AD76-46F36793CD8B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -784,6 +784,13 @@
   </si>
   <si>
     <t>Jul 2023-Jun 2024</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  ONS published a 
+  &lt;a href="https://osr.statisticsauthority.gov.uk/correspondence/michael-keoghan-to-siobhan-tuohy-smith-request-to-suspend-aps-accreditation/"&gt;response to OSR&lt;/a&gt; about the current quality of Annual Population Survey (APS) (and Labour Force Survey) outputs. ONS asked OSR to temporarily suspend accreditation of all APS-based ONS outputs. There has since been a 
+  &lt;a href="https://osr.statisticsauthority.gov.uk/correspondence/ed-humpherson-to-michael-keoghan-suspension-of-the-accredited-official-statistics-status-for-the-estimates-ons-produces-from-the-annual-population-survey/"&gt;response letter from OSR&lt;/a&gt;. Overall, ONS’ view on the quality of the APS is that while it is robust for national and headline regional estimates, there are concerns with the quality of estimates for smaller segments of the population, such as local authority geographies. ONS will publish an explanatory note later this year providing guidance to users on the quality of current APS and will be used to inform further work ONS is undertaking to improve quality of the survey.
+&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -876,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -895,6 +902,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1263,7 +1273,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="189" thickBot="1">
+    <row r="2" spans="1:13" ht="409.6" thickBot="1">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -1276,8 +1286,8 @@
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
+      <c r="E2" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>180</v>
@@ -1304,7 +1314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="189" thickBot="1">
+    <row r="3" spans="1:13" ht="409.6" thickBot="1">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -1317,8 +1327,8 @@
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
+      <c r="E3" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>180</v>
@@ -1345,7 +1355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="261.5" thickBot="1">
+    <row r="4" spans="1:13" ht="409.6" thickBot="1">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -1358,8 +1368,8 @@
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
+      <c r="E4" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>195</v>
@@ -1386,7 +1396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="189" thickBot="1">
+    <row r="5" spans="1:13" ht="409.6" thickBot="1">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1399,8 +1409,8 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
+      <c r="E5" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>180</v>
@@ -1427,7 +1437,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="247" thickBot="1">
+    <row r="6" spans="1:13" ht="409.6" thickBot="1">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -1440,8 +1450,8 @@
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
+      <c r="E6" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>196</v>
@@ -1468,7 +1478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="189" thickBot="1">
+    <row r="7" spans="1:13" ht="409.6" thickBot="1">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -1481,8 +1491,8 @@
       <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
+      <c r="E7" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>194</v>
@@ -1509,7 +1519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="189" thickBot="1">
+    <row r="8" spans="1:13" ht="409.6" thickBot="1">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1522,8 +1532,8 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
+      <c r="E8" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>194</v>
@@ -1550,7 +1560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="189" thickBot="1">
+    <row r="9" spans="1:13" ht="409.6" thickBot="1">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1563,8 +1573,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
+      <c r="E9" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>180</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3411C163-F5C4-415A-AD76-46F36793CD8B}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DEA5895-453A-4F33-8C9B-F17526794EBF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -597,9 +597,6 @@
 Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
   </si>
   <si>
-    <t>Mar 2023 data</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
 &lt;li&gt;The definition of when a student is at the end of 16 to 18 study has changed this year and comparisons to previous cohorts should be treated with caution. Students are included in this statistical release when they reach the end of 16 to 18 study. The ‘trigger’ rules for deciding when this happens changed in 2020/21. Further details can be found in the &lt;a href = https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;publication&lt;/a&gt;.&lt;/li&gt;
 &lt;li&gt;There was no checking exercise for this cohort of students. The checking exercise ordinarily allows schools and colleges to confirm whether the students we report are at end of 16 to 18 study. This means that this data may not accurately represent whether students were at the end of 16 to 18 study in 2020/21.&lt;/li&gt;
@@ -791,6 +788,9 @@
   &lt;a href="https://osr.statisticsauthority.gov.uk/correspondence/michael-keoghan-to-siobhan-tuohy-smith-request-to-suspend-aps-accreditation/"&gt;response to OSR&lt;/a&gt; about the current quality of Annual Population Survey (APS) (and Labour Force Survey) outputs. ONS asked OSR to temporarily suspend accreditation of all APS-based ONS outputs. There has since been a 
   &lt;a href="https://osr.statisticsauthority.gov.uk/correspondence/ed-humpherson-to-michael-keoghan-suspension-of-the-accredited-official-statistics-status-for-the-estimates-ons-produces-from-the-annual-population-survey/"&gt;response letter from OSR&lt;/a&gt;. Overall, ONS’ view on the quality of the APS is that while it is robust for national and headline regional estimates, there are concerns with the quality of estimates for smaller segments of the population, such as local authority geographies. ONS will publish an explanatory note later this year providing guidance to users on the quality of current APS and will be used to inform further work ONS is undertaking to improve quality of the survey.
 &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Mar 2024 data</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1278,7 +1278,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1287,10 +1287,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
@@ -1319,7 +1319,7 @@
         <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1328,10 +1328,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
@@ -1360,7 +1360,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1369,10 +1369,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1410,10 +1410,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>31</v>
@@ -1442,7 +1442,7 @@
         <v>156</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1451,10 +1451,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>159</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1492,10 +1492,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
@@ -1524,7 +1524,7 @@
         <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1533,10 +1533,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
@@ -1565,7 +1565,7 @@
         <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1574,10 +1574,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>34</v>
@@ -1606,19 +1606,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1627,7 +1627,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1647,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1729,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1770,13 +1770,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
         <v>178</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" t="s">
-        <v>179</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1791,7 +1791,7 @@
         <v>142</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" t="s">
         <v>178</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1832,7 +1832,7 @@
         <v>143</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1852,19 +1852,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
@@ -1873,7 +1873,7 @@
         <v>144</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1893,19 +1893,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -1914,7 +1914,7 @@
         <v>145</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1934,10 +1934,10 @@
         <v>163</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1946,7 +1946,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>43</v>
@@ -1955,7 +1955,7 @@
         <v>146</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1987,28 +1987,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">
@@ -2069,7 +2069,7 @@
         <v>174</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2107,10 +2107,10 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>126</v>
@@ -2137,13 +2137,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -2158,13 +2158,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3411C163-F5C4-415A-AD76-46F36793CD8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20819F5D-21A7-46F3-A264-AE6FEE78F2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="216">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>Growth from 2023 to 2035</t>
-  </si>
-  <si>
-    <t>AY21/22 data</t>
   </si>
   <si>
     <t>Projected employment growth</t>
@@ -1221,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1275,10 +1272,10 @@
     </row>
     <row r="2" spans="1:13" ht="409.6" thickBot="1">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1287,16 +1284,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>48</v>
@@ -1316,10 +1313,10 @@
     </row>
     <row r="3" spans="1:13" ht="409.6" thickBot="1">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1328,16 +1325,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>53</v>
@@ -1357,10 +1354,10 @@
     </row>
     <row r="4" spans="1:13" ht="409.6" thickBot="1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1369,16 +1366,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>48</v>
@@ -1401,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1410,16 +1407,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>60</v>
@@ -1439,10 +1436,10 @@
     </row>
     <row r="6" spans="1:13" ht="409.6" thickBot="1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1451,16 +1448,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>64</v>
@@ -1472,7 +1469,7 @@
         <v>63</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>65</v>
@@ -1480,10 +1477,10 @@
     </row>
     <row r="7" spans="1:13" ht="409.6" thickBot="1">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1492,16 +1489,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>67</v>
@@ -1521,10 +1518,10 @@
     </row>
     <row r="8" spans="1:13" ht="409.6" thickBot="1">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1533,16 +1530,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>71</v>
@@ -1562,10 +1559,10 @@
     </row>
     <row r="9" spans="1:13" ht="409.6" thickBot="1">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1574,16 +1571,16 @@
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>75</v>
@@ -1606,28 +1603,28 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1636,7 +1633,7 @@
         <v>78</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>80</v>
@@ -1647,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1659,13 +1656,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>82</v>
@@ -1677,7 +1674,7 @@
         <v>81</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>84</v>
@@ -1688,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1700,13 +1697,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>86</v>
@@ -1729,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1741,13 +1738,13 @@
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>91</v>
@@ -1770,28 +1767,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
         <v>178</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" t="s">
-        <v>179</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1800,7 +1797,7 @@
         <v>95</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>96</v>
@@ -1811,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" t="s">
         <v>178</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1841,7 +1838,7 @@
         <v>97</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>99</v>
@@ -1852,28 +1849,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1893,28 +1890,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1931,13 +1928,13 @@
     </row>
     <row r="18" spans="1:13" ht="290.5" thickBot="1">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1946,16 +1943,16 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1972,13 +1969,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1987,28 +1984,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">
@@ -2016,25 +2013,25 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>44</v>
@@ -2057,25 +2054,25 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>45</v>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="22" spans="1:13" ht="334" thickBot="1">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>124</v>
@@ -2104,31 +2101,31 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -2137,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2158,19 +2155,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DEA5895-453A-4F33-8C9B-F17526794EBF}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B2044FB-C57C-45FB-BF43-0DC1EF60AFEF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="216">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>Growth from 2023 to 2035</t>
-  </si>
-  <si>
-    <t>AY21/22 data</t>
   </si>
   <si>
     <t>Projected employment growth</t>
@@ -567,44 +564,6 @@
   </si>
   <si>
     <t>employment volume share</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY20/21.</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY20/21.
-A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
-This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
-A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2021 and July 2022).
-Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
-Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/f5995891-4e9a-439d-0d58-08dbd1400c33'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY20/21.</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/b0424f32-b140-44a8-a039-08dbd1466a44'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY20/21.
-A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
-This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
-A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2021 and July 2022).
-Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
-Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-&lt;li&gt;The definition of when a student is at the end of 16 to 18 study has changed this year and comparisons to previous cohorts should be treated with caution. Students are included in this statistical release when they reach the end of 16 to 18 study. The ‘trigger’ rules for deciding when this happens changed in 2020/21. Further details can be found in the &lt;a href = https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;publication&lt;/a&gt;.&lt;/li&gt;
-&lt;li&gt;There was no checking exercise for this cohort of students. The checking exercise ordinarily allows schools and colleges to confirm whether the students we report are at end of 16 to 18 study. This means that this data may not accurately represent whether students were at the end of 16 to 18 study in 2020/21.&lt;/li&gt;
-  &lt;li&gt;Data based on destinations of state-funded mainstream schools and colleges.&lt;/li&gt;
- &lt;li&gt;There is no double counting across destinations, a young person is reported in one destination category only.&lt;/li&gt;
- &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
   </si>
   <si>
     <t>Dec 2021 - Dec 2022 data</t>
@@ -791,6 +750,44 @@
   </si>
   <si>
     <t>Mar 2024 data</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY21/22.</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/86d98c08-f1f2-469f-5a0f-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.
+A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
+This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
+A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2021 and July 2022).
+Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
+Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY21/22.
+A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
+This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
+A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2021 and July 2022).
+Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
+Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;The definition of when a student is at the end of 16 to 18 study has changed last year and comparisons to previous cohorts should be treated with caution. Students are included in this statistical release when they reach the end of 16 to 18 study. The ‘trigger’ rules for deciding when this happens changed in 2020/21. Further details can be found in the &lt;a href = https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;publication&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;There was no checking exercise for this cohort of students. The checking exercise ordinarily allows schools and colleges to confirm whether the students we report are at end of 16 to 18 study. This means that this data may not accurately represent whether students were at the end of 16 to 18 study in 2020/21.&lt;/li&gt;
+  &lt;li&gt;Data based on destinations of state-funded mainstream schools and colleges.&lt;/li&gt;
+ &lt;li&gt;There is no double counting across destinations, a young person is reported in one destination category only.&lt;/li&gt;
+ &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1275,10 +1272,10 @@
     </row>
     <row r="2" spans="1:13" ht="409.6" thickBot="1">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1287,16 +1284,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>48</v>
@@ -1316,10 +1313,10 @@
     </row>
     <row r="3" spans="1:13" ht="409.6" thickBot="1">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1328,16 +1325,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>53</v>
@@ -1357,10 +1354,10 @@
     </row>
     <row r="4" spans="1:13" ht="409.6" thickBot="1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1369,16 +1366,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>48</v>
@@ -1401,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1410,16 +1407,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>60</v>
@@ -1439,10 +1436,10 @@
     </row>
     <row r="6" spans="1:13" ht="409.6" thickBot="1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1451,16 +1448,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>64</v>
@@ -1472,7 +1469,7 @@
         <v>63</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>65</v>
@@ -1480,10 +1477,10 @@
     </row>
     <row r="7" spans="1:13" ht="409.6" thickBot="1">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1492,16 +1489,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>67</v>
@@ -1521,10 +1518,10 @@
     </row>
     <row r="8" spans="1:13" ht="409.6" thickBot="1">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1533,16 +1530,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>71</v>
@@ -1562,10 +1559,10 @@
     </row>
     <row r="9" spans="1:13" ht="409.6" thickBot="1">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1574,16 +1571,16 @@
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>75</v>
@@ -1606,28 +1603,28 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1636,7 +1633,7 @@
         <v>78</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>80</v>
@@ -1647,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1659,13 +1656,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>82</v>
@@ -1677,7 +1674,7 @@
         <v>81</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>84</v>
@@ -1688,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1700,13 +1697,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>86</v>
@@ -1729,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1741,13 +1738,13 @@
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>91</v>
@@ -1770,28 +1767,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1800,7 +1797,7 @@
         <v>95</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>96</v>
@@ -1811,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1841,7 +1838,7 @@
         <v>97</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>99</v>
@@ -1852,28 +1849,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1893,28 +1890,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1931,13 +1928,13 @@
     </row>
     <row r="18" spans="1:13" ht="290.5" thickBot="1">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1946,16 +1943,16 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1972,13 +1969,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
         <v>181</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" t="s">
-        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1987,28 +1984,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">
@@ -2016,25 +2013,25 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>44</v>
@@ -2057,25 +2054,25 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>45</v>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="22" spans="1:13" ht="334" thickBot="1">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>124</v>
@@ -2104,31 +2101,31 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -2137,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2158,19 +2155,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/rory_burke_education_gov_uk/Documents/GiT Projects/Local Skills Dashboard/Local skills dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B2044FB-C57C-45FB-BF43-0DC1EF60AFEF}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B67A5692-AB4C-493F-A50D-D32B8BF2C6B5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-15230" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -720,12 +720,6 @@
     <t>The number of online job adverts in</t>
   </si>
   <si>
-    <t>Dec 2023 data</t>
-  </si>
-  <si>
-    <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Further data will be published in late summer 2024.</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;The projections presented in this Workbook are calculated from a number of different data sources, using a variety of econometric and statistical techniques. As a result, precise margins of error cannot be assigned to the estimates. For further details, see the Technical Report. &lt;/li&gt;
  &lt;li&gt;Industries are based on SIC 2007 codes. &lt;/li&gt;
@@ -788,6 +782,12 @@
  &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Nov 2024 data</t>
+  </si>
+  <si>
+    <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Announcement for next data release is tbc.</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1275,7 +1275,7 @@
         <v>154</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1284,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>171</v>
@@ -1316,7 +1316,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>171</v>
@@ -1357,7 +1357,7 @@
         <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1366,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>186</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1407,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>171</v>
@@ -1439,7 +1439,7 @@
         <v>155</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1448,7 +1448,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>187</v>
@@ -1480,7 +1480,7 @@
         <v>158</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1489,7 +1489,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>185</v>
@@ -1521,7 +1521,7 @@
         <v>159</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1530,7 +1530,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>185</v>
@@ -1562,7 +1562,7 @@
         <v>160</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1571,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>171</v>
@@ -1603,10 +1603,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>172</v>
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -2016,13 +2016,13 @@
         <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>152</v>
@@ -2057,16 +2057,16 @@
         <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2104,10 +2104,10 @@
         <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>125</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/rory_burke_education_gov_uk/Documents/GiT Projects/Local Skills Dashboard/Local skills dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B67A5692-AB4C-493F-A50D-D32B8BF2C6B5}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47B3EF9-7CA0-4FC4-B1AC-4AF2B456BD10}"/>
   <bookViews>
-    <workbookView xWindow="-15230" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -784,10 +784,10 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Nov 2024 data</t>
-  </si>
-  <si>
     <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Announcement for next data release is tbc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 2024 data. North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1603,10 +1603,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>172</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/rory_burke_education_gov_uk/Documents/GiT Projects/Local Skills Dashboard/Local skills dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47B3EF9-7CA0-4FC4-B1AC-4AF2B456BD10}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F63ADE-424D-455B-BFBE-E061FFE07689}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -415,9 +415,6 @@
     <t>LaComment</t>
   </si>
   <si>
-    <t>Growth from 2023 to 2035</t>
-  </si>
-  <si>
     <t>Projected employment growth</t>
   </si>
   <si>
@@ -566,12 +563,6 @@
     <t>employment volume share</t>
   </si>
   <si>
-    <t>Dec 2021 - Dec 2022 data</t>
-  </si>
-  <si>
-    <t>AY22/23 data</t>
-  </si>
-  <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
@@ -586,9 +577,6 @@
   </si>
   <si>
     <t>L4PlusRate</t>
-  </si>
-  <si>
-    <t>Jan-Dec 2023 data</t>
   </si>
   <si>
     <t>The proportion of people qualified at Level 4 or above</t>
@@ -733,17 +721,11 @@
     <t>Data presented is the baseline projection. Alternative scenarios are available within the published data for UK only.</t>
   </si>
   <si>
-    <t>Jul 2023-Jun 2024</t>
-  </si>
-  <si>
     <t>&lt;p&gt;
   ONS published a 
   &lt;a href="https://osr.statisticsauthority.gov.uk/correspondence/michael-keoghan-to-siobhan-tuohy-smith-request-to-suspend-aps-accreditation/"&gt;response to OSR&lt;/a&gt; about the current quality of Annual Population Survey (APS) (and Labour Force Survey) outputs. ONS asked OSR to temporarily suspend accreditation of all APS-based ONS outputs. There has since been a 
   &lt;a href="https://osr.statisticsauthority.gov.uk/correspondence/ed-humpherson-to-michael-keoghan-suspension-of-the-accredited-official-statistics-status-for-the-estimates-ons-produces-from-the-annual-population-survey/"&gt;response letter from OSR&lt;/a&gt;. Overall, ONS’ view on the quality of the APS is that while it is robust for national and headline regional estimates, there are concerns with the quality of estimates for smaller segments of the population, such as local authority geographies. ONS will publish an explanatory note later this year providing guidance to users on the quality of current APS and will be used to inform further work ONS is undertaking to improve quality of the survey.
 &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Mar 2024 data</t>
   </si>
   <si>
     <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY21/22.</t>
@@ -788,6 +770,24 @@
   </si>
   <si>
     <t xml:space="preserve">Nov 2024 data. North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 2023-Jun 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar 2024 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 2021 - Dec 2022 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY22/23 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan-Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth from 2023 to 2035.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="2" spans="1:13" ht="409.6" thickBot="1">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>48</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="3" spans="1:13" ht="409.6" thickBot="1">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1325,16 +1325,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>53</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="4" spans="1:13" ht="409.6" thickBot="1">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1366,16 +1366,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>48</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1407,16 +1407,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>60</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="6" spans="1:13" ht="409.6" thickBot="1">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1448,16 +1448,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>64</v>
@@ -1469,7 +1469,7 @@
         <v>63</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>65</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="7" spans="1:13" ht="409.6" thickBot="1">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1489,16 +1489,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>67</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="8" spans="1:13" ht="409.6" thickBot="1">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1530,16 +1530,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>71</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="9" spans="1:13" ht="409.6" thickBot="1">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1571,16 +1571,16 @@
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>75</v>
@@ -1603,28 +1603,28 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1633,7 +1633,7 @@
         <v>78</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>80</v>
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1656,13 +1656,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>82</v>
@@ -1674,7 +1674,7 @@
         <v>81</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>84</v>
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1697,13 +1697,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>86</v>
@@ -1726,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1738,13 +1738,13 @@
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>91</v>
@@ -1767,28 +1767,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1797,7 +1797,7 @@
         <v>95</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>96</v>
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1838,7 +1838,7 @@
         <v>97</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>99</v>
@@ -1849,28 +1849,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1890,28 +1890,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="18" spans="1:13" ht="290.5" thickBot="1">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1943,16 +1943,16 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1984,28 +1984,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">
@@ -2013,25 +2013,25 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>44</v>
@@ -2054,25 +2054,25 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>45</v>
@@ -2092,40 +2092,40 @@
     </row>
     <row r="22" spans="1:13" ht="334" thickBot="1">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -2134,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2155,19 +2155,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/rory_burke_education_gov_uk/Documents/GiT Projects/Local Skills Dashboard/Local skills dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F63ADE-424D-455B-BFBE-E061FFE07689}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAC6A40-A8A4-4AB4-A7B2-174FFE8D5978}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -769,25 +769,25 @@
     <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Announcement for next data release is tbc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov 2024 data. North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2023-Jun 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2024 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2021 - Dec 2022 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AY22/23 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan-Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Growth from 2023 to 2035.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on. </t>
+    <t>Jul 2023-Jun 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
+  </si>
+  <si>
+    <t>Nov 2024 data. North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
+  </si>
+  <si>
+    <t>Mar 2024 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
+  </si>
+  <si>
+    <t>Dec 2021 - Dec 2022 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
+  </si>
+  <si>
+    <t>AY22/23 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
+  </si>
+  <si>
+    <t>Jan-Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
+  </si>
+  <si>
+    <t>Growth from 2023 to 2035.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1316,7 +1316,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1357,7 +1357,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1439,7 +1439,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1480,7 +1480,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1521,7 +1521,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1562,7 +1562,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>208</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/rory_burke_education_gov_uk/Documents/GiT Projects/Local Skills Dashboard/Local skills dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAC6A40-A8A4-4AB4-A7B2-174FFE8D5978}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695CFA0D-E5BC-4D82-A8FB-F22346A8277B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -769,25 +769,25 @@
     <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Announcement for next data release is tbc.</t>
   </si>
   <si>
-    <t>Jul 2023-Jun 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
-  </si>
-  <si>
-    <t>Nov 2024 data. North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
-  </si>
-  <si>
-    <t>Mar 2024 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
-  </si>
-  <si>
-    <t>Dec 2021 - Dec 2022 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
-  </si>
-  <si>
-    <t>AY22/23 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
-  </si>
-  <si>
-    <t>Jan-Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
-  </si>
-  <si>
-    <t>Growth from 2023 to 2035.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on.</t>
+    <t>Jul 2023-Jun 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>Nov 2024 data. North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>Mar 2024 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>Dec 2021 - Dec 2022 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>AY22/23 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>Jan-Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>Growth from 2023 to 2035.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/rory_burke_education_gov_uk/Documents/GiT Projects/Local Skills Dashboard/Local skills dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695CFA0D-E5BC-4D82-A8FB-F22346A8277B}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C162B97-7D46-43D0-94A3-01C6B96BA288}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -778,9 +778,6 @@
     <t>Mar 2024 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
   </si>
   <si>
-    <t>Dec 2021 - Dec 2022 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
     <t>AY22/23 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
   </si>
   <si>
@@ -788,6 +785,9 @@
   </si>
   <si>
     <t>Growth from 2023 to 2035.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>Dec 2022 - Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1726,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1767,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
@@ -1808,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
@@ -1849,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
@@ -1931,7 +1931,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1972,7 +1972,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2013,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -2054,7 +2054,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
@@ -2095,7 +2095,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{842D1F76-F660-4041-A684-7CDB08B97A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C162B97-7D46-43D0-94A3-01C6B96BA288}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -769,9 +769,6 @@
     <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Announcement for next data release is tbc.</t>
   </si>
   <si>
-    <t>Jul 2023-Jun 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
     <t>Nov 2024 data. North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
   </si>
   <si>
@@ -788,6 +785,9 @@
   </si>
   <si>
     <t>Dec 2022 - Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>Oct 2023-Sep 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1275,7 +1275,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1316,7 +1316,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1357,7 +1357,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1439,7 +1439,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1480,7 +1480,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1521,7 +1521,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1562,7 +1562,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>208</v>
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1726,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1767,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
@@ -1808,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
@@ -1849,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
@@ -1931,7 +1931,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1972,7 +1972,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2013,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -2054,7 +2054,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
@@ -2095,7 +2095,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE9E043-FAA5-44DD-B33F-7C0F8E128154}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="218">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -788,6 +788,12 @@
   </si>
   <si>
     <t>Oct 2023-Sep 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>AY23/24 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1767,13 +1773,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1808,13 +1814,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1849,13 +1855,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>186</v>
@@ -1890,13 +1896,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>186</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE9E043-FAA5-44DD-B33F-7C0F8E128154}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEAD3A1B-E086-4B2B-B703-834DCEC36619}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -769,31 +769,31 @@
     <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Announcement for next data release is tbc.</t>
   </si>
   <si>
-    <t>Nov 2024 data. North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
-    <t>Mar 2024 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
-    <t>AY22/23 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
-    <t>Jan-Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
-    <t>Growth from 2023 to 2035.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
-    <t>Dec 2022 - Dec 2023 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
-    <t>Oct 2023-Sep 2024.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
-    <t>AY23/24 data.  North East and North of Tyne MCA have temporarily been removed, on account of North of Tyne being integrated into North East from now on</t>
-  </si>
-  <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 2023-Sep 2024. </t>
+  </si>
+  <si>
+    <t>Nov 2024 data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar 2024 data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 2022 - Dec 2023 data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY23/24 data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan-Dec 2023 data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY22/23 data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth from 2023 to 2035. </t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1322,7 +1322,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1363,7 +1363,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1445,7 +1445,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1527,7 +1527,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1568,7 +1568,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>208</v>
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1732,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1773,13 +1773,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1814,13 +1814,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1855,13 +1855,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>186</v>
@@ -1896,13 +1896,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>186</v>
@@ -1937,7 +1937,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1978,7 +1978,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2019,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -2060,7 +2060,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
@@ -2101,7 +2101,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2140,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2161,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEAD3A1B-E086-4B2B-B703-834DCEC36619}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B43CCA-65D8-4352-86F6-924305AD290B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -772,28 +772,28 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Oct 2023-Sep 2024. </t>
-  </si>
-  <si>
     <t>Nov 2024 data.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mar 2024 data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2022 - Dec 2023 data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AY23/24 data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan-Dec 2023 data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AY22/23 data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Growth from 2023 to 2035. </t>
+    <t>Oct 2023-Sep 2024</t>
+  </si>
+  <si>
+    <t>Mar 2024 data</t>
+  </si>
+  <si>
+    <t>Dec 2022 - Dec 2023 data</t>
+  </si>
+  <si>
+    <t>AY23/24 data</t>
+  </si>
+  <si>
+    <t>Jan-Dec 2023 data</t>
+  </si>
+  <si>
+    <t>AY22/23 data</t>
+  </si>
+  <si>
+    <t>Growth from 2023 to 2035</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1281,7 +1281,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1322,7 +1322,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1363,7 +1363,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1445,7 +1445,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1527,7 +1527,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1568,7 +1568,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>208</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B43CCA-65D8-4352-86F6-924305AD290B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9BC98B2-BD65-43E7-9F83-9554C3468CC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -772,9 +772,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Nov 2024 data.</t>
-  </si>
-  <si>
     <t>Oct 2023-Sep 2024</t>
   </si>
   <si>
@@ -794,6 +791,9 @@
   </si>
   <si>
     <t>Growth from 2023 to 2035</t>
+  </si>
+  <si>
+    <t>Nov 2024 data</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B18" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1281,7 +1281,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1322,7 +1322,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1363,7 +1363,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1445,7 +1445,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1527,7 +1527,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1568,7 +1568,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>208</v>
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1732,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1773,7 +1773,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
@@ -1814,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
@@ -1855,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
@@ -1937,7 +1937,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1978,7 +1978,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2019,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -2060,7 +2060,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
@@ -2101,7 +2101,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2140,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2161,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9BC98B2-BD65-43E7-9F83-9554C3468CC1}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D5A7BF-D8F2-4EA9-ACA8-DCBCDCF61DFF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -734,12 +734,6 @@
     <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/86d98c08-f1f2-469f-5a0f-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.
 A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
 This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
@@ -794,6 +788,12 @@
   </si>
   <si>
     <t>Nov 2024 data</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;16-18 destination measures&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1281,7 +1281,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1322,7 +1322,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1363,7 +1363,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1445,7 +1445,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1527,7 +1527,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1568,7 +1568,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1609,10 +1609,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>169</v>
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1732,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1773,13 +1773,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1814,13 +1814,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1855,13 +1855,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>186</v>
@@ -1896,13 +1896,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>186</v>
@@ -1937,7 +1937,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1978,7 +1978,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2019,16 +2019,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>151</v>
@@ -2060,19 +2060,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2101,7 +2101,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2140,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2161,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D5A7BF-D8F2-4EA9-ACA8-DCBCDCF61DFF}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECA969C3-9CDF-4744-9E58-26F760E08156}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -787,13 +787,13 @@
     <t>Growth from 2023 to 2035</t>
   </si>
   <si>
-    <t>Nov 2024 data</t>
-  </si>
-  <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;16-18 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Jan 2025 data</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>206</v>
@@ -2025,7 +2025,7 @@
         <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>203</v>
@@ -2066,7 +2066,7 @@
         <v>201</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>204</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9BC98B2-BD65-43E7-9F83-9554C3468CC1}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7FE168B-D5C7-46CA-A74A-9DE707D687BD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -772,9 +772,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Oct 2023-Sep 2024</t>
-  </si>
-  <si>
     <t>Mar 2024 data</t>
   </si>
   <si>
@@ -794,6 +791,9 @@
   </si>
   <si>
     <t>Nov 2024 data</t>
+  </si>
+  <si>
+    <t>Jan 2024-Dec 2024</t>
   </si>
 </sst>
 </file>
@@ -845,9 +845,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="8"/>
       <color rgb="FF333333"/>
-      <name val="Verdana"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -904,9 +904,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1280,8 +1282,8 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>210</v>
+      <c r="B2" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1289,7 +1291,7 @@
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1321,8 +1323,8 @@
       <c r="A3" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>210</v>
+      <c r="B3" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1330,7 +1332,7 @@
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1362,8 +1364,8 @@
       <c r="A4" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>210</v>
+      <c r="B4" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1371,7 +1373,7 @@
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1403,8 +1405,8 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>210</v>
+      <c r="B5" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1412,7 +1414,7 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1444,8 +1446,8 @@
       <c r="A6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>210</v>
+      <c r="B6" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1453,7 +1455,7 @@
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1485,8 +1487,8 @@
       <c r="A7" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>210</v>
+      <c r="B7" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1494,7 +1496,7 @@
       <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1526,8 +1528,8 @@
       <c r="A8" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>210</v>
+      <c r="B8" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1535,7 +1537,7 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1567,8 +1569,8 @@
       <c r="A9" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>210</v>
+      <c r="B9" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1576,7 +1578,7 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1609,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>208</v>
@@ -1650,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1691,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1732,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1773,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
@@ -1814,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
@@ -1855,7 +1857,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
@@ -1896,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
@@ -1937,7 +1939,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1978,7 +1980,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2019,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -2060,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
@@ -2101,7 +2103,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2140,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2161,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7FE168B-D5C7-46CA-A74A-9DE707D687BD}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7B4DDC-B69B-45DE-9465-2A1B516B8D16}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="4360" yWindow="20" windowWidth="15310" windowHeight="14300" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -790,10 +790,10 @@
     <t>Growth from 2023 to 2035</t>
   </si>
   <si>
-    <t>Nov 2024 data</t>
-  </si>
-  <si>
     <t>Jan 2024-Dec 2024</t>
+  </si>
+  <si>
+    <t>Feb 2025 data</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1283,7 +1283,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1324,7 +1324,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1365,7 +1365,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1447,7 +1447,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1488,7 +1488,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1529,7 +1529,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1570,7 +1570,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1611,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>208</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7B4DDC-B69B-45DE-9465-2A1B516B8D16}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1C1CFD-8EB2-43C7-8268-3587D01DB133}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="20" windowWidth="15310" windowHeight="14300" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -734,12 +734,6 @@
     <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/86d98c08-f1f2-469f-5a0f-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.
 A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
 This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
@@ -794,6 +788,12 @@
   </si>
   <si>
     <t>Feb 2025 data</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;16-18 destination measures&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1283,7 +1283,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1324,7 +1324,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1365,7 +1365,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1447,7 +1447,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1488,7 +1488,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1529,7 +1529,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1570,7 +1570,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1611,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>169</v>
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1734,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1775,13 +1775,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1816,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1857,13 +1857,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>186</v>
@@ -1898,13 +1898,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>186</v>
@@ -1939,7 +1939,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1980,7 +1980,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2021,16 +2021,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>151</v>
@@ -2062,19 +2062,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2103,7 +2103,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2163,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1C1CFD-8EB2-43C7-8268-3587D01DB133}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEB1A5F1-3572-4051-9587-11EB99C2A0E3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="760" yWindow="740" windowWidth="15310" windowHeight="14300" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -787,13 +787,13 @@
     <t>Jan 2024-Dec 2024</t>
   </si>
   <si>
-    <t>Feb 2025 data</t>
-  </si>
-  <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;16-18 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mar 2025 data</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1611,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>206</v>
@@ -2027,7 +2027,7 @@
         <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>203</v>
@@ -2068,7 +2068,7 @@
         <v>201</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>204</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{C632E5F5-1B09-41BB-888F-70ACD4C23F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEB1A5F1-3572-4051-9587-11EB99C2A0E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="740" windowWidth="15310" windowHeight="14300" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -775,9 +775,6 @@
     <t>AY23/24 data</t>
   </si>
   <si>
-    <t>Jan-Dec 2023 data</t>
-  </si>
-  <si>
     <t>AY22/23 data</t>
   </si>
   <si>
@@ -794,6 +791,9 @@
   </si>
   <si>
     <t>Mar 2025 data</t>
+  </si>
+  <si>
+    <t>Jan-Dec 2024 data</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1283,7 +1283,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1324,7 +1324,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1365,7 +1365,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1447,7 +1447,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1488,7 +1488,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1529,7 +1529,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1570,7 +1570,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1611,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>206</v>
@@ -1939,7 +1939,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1980,7 +1980,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2021,13 +2021,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>203</v>
@@ -2062,13 +2062,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>204</v>
@@ -2103,7 +2103,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2163,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500C7C74-4AB0-4F48-A817-0B8417DEFBA9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -760,9 +760,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). Announcement for next data release is tbc.</t>
-  </si>
-  <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
@@ -794,6 +791,9 @@
   </si>
   <si>
     <t>Jan-Dec 2024 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These statistics should be treated as official statistics in development (previously known as experimental statistics). </t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1283,7 +1283,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1324,7 +1324,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1365,7 +1365,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1447,7 +1447,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1488,7 +1488,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1529,7 +1529,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1570,7 +1570,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1611,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>169</v>
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1734,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1775,13 +1775,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1816,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1857,13 +1857,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>186</v>
@@ -1898,13 +1898,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>186</v>
@@ -1939,7 +1939,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1980,7 +1980,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2021,13 +2021,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>203</v>
@@ -2062,13 +2062,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>204</v>
@@ -2103,7 +2103,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2163,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500C7C74-4AB0-4F48-A817-0B8417DEFBA9}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA3913D-5063-4FDB-B5FB-2F5D29B20D98}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -619,15 +619,6 @@
   </si>
   <si>
     <t>&lt;ol&gt;
-  &lt;li&gt;These statistics should be treated as official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs and may be modified in the future.&lt;/li&gt;
-&lt;li&gt;Counts have been rounded to the nearest 5. Totals may not add due to this rounding.&lt;/li&gt;
-&lt;li&gt;Where the same job is identified as being advertised through multiple adverts it is only counted once.&lt;/li&gt;
-&lt;li&gt;The method for allocating jobs to occupations (SOC 2020) is based on the job title of the advert and will be developed further in future releases.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
   &lt;li&gt;Figures are for all ages (16+).&lt;/li&gt;
 &lt;li&gt;Each estimate from the Annual Population Survey carries a margin of error. These are available in the original data via NOMIS. Large margins of error are usually associated with groups with only a small number of respondents. Therefore, please take caution when interpreting data from small subgroups.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
@@ -787,13 +778,21 @@
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;16-18 destination measures&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mar 2025 data</t>
-  </si>
-  <si>
     <t>Jan-Dec 2024 data</t>
   </si>
   <si>
     <t xml:space="preserve">These statistics should be treated as official statistics in development (previously known as experimental statistics). </t>
+  </si>
+  <si>
+    <t>May 2025 data</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;These statistics should be treated as official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs and may be modified in the future.&lt;/li&gt;
+&lt;li&gt;Where the same job is identified as being advertised through multiple adverts it is only counted once.&lt;/li&gt;
+&lt;li&gt;The method for allocating jobs to occupations (SOC 2020) is based on the job title of the advert and will be developed further in future releases.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1226,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1283,7 +1282,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1292,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>168</v>
@@ -1324,7 +1323,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1333,7 +1332,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>168</v>
@@ -1365,7 +1364,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1374,10 +1373,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
@@ -1406,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1415,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>168</v>
@@ -1447,7 +1446,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1456,10 +1455,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
@@ -1488,7 +1487,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1497,10 +1496,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
@@ -1529,7 +1528,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1538,10 +1537,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
@@ -1570,7 +1569,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1579,7 +1578,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>168</v>
@@ -1606,15 +1605,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="247" thickBot="1">
+    <row r="10" spans="1:13" ht="218" thickBot="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>169</v>
@@ -1623,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1632,7 +1631,7 @@
         <v>136</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1652,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1693,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1734,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1775,13 +1774,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1796,7 +1795,7 @@
         <v>140</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1816,13 +1815,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1837,7 +1836,7 @@
         <v>141</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1857,19 +1856,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
@@ -1878,7 +1877,7 @@
         <v>142</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1898,19 +1897,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -1919,7 +1918,7 @@
         <v>143</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1939,7 +1938,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1960,7 +1959,7 @@
         <v>144</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1980,7 +1979,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2001,7 +2000,7 @@
         <v>172</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>173</v>
@@ -2021,16 +2020,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>151</v>
@@ -2062,19 +2061,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2103,7 +2102,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2112,10 +2111,10 @@
         <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>124</v>
@@ -2142,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2163,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA3913D-5063-4FDB-B5FB-2F5D29B20D98}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5705A226-9390-4C7B-97C4-788CB51D7B0A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -769,9 +769,6 @@
     <t>Growth from 2023 to 2035</t>
   </si>
   <si>
-    <t>Jan 2024-Dec 2024</t>
-  </si>
-  <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
   </si>
   <si>
@@ -793,6 +790,9 @@
 &lt;li&gt;The method for allocating jobs to occupations (SOC 2020) is based on the job title of the advert and will be developed further in future releases.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Apr 2024 - Mar 2025</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1282,7 +1282,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1323,7 +1323,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1364,7 +1364,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1446,7 +1446,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1487,7 +1487,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1528,7 +1528,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1569,7 +1569,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1610,10 +1610,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>169</v>
@@ -1622,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1938,7 +1938,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -1979,7 +1979,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -2026,7 +2026,7 @@
         <v>201</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>202</v>
@@ -2067,7 +2067,7 @@
         <v>200</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>203</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5705A226-9390-4C7B-97C4-788CB51D7B0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A84076-B629-42A7-BA34-57CD223AA1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="5040" yWindow="20" windowWidth="15310" windowHeight="14300" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>Projected employment growth</t>
-  </si>
-  <si>
-    <t>Projected employment growth from 2023 to 2035</t>
   </si>
   <si>
     <t>projected employment volume changes</t>
@@ -766,9 +763,6 @@
     <t>AY22/23 data</t>
   </si>
   <si>
-    <t>Growth from 2023 to 2035</t>
-  </si>
-  <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
   </si>
   <si>
@@ -793,6 +787,9 @@
   </si>
   <si>
     <t>Apr 2024 - Mar 2025</t>
+  </si>
+  <si>
+    <t>Growth from 2024 to 2035</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1279,10 +1276,10 @@
     </row>
     <row r="2" spans="1:13" ht="409.6" thickBot="1">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1291,16 +1288,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>48</v>
@@ -1320,10 +1317,10 @@
     </row>
     <row r="3" spans="1:13" ht="409.6" thickBot="1">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1332,16 +1329,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>53</v>
@@ -1361,10 +1358,10 @@
     </row>
     <row r="4" spans="1:13" ht="409.6" thickBot="1">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1373,16 +1370,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>48</v>
@@ -1405,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1414,16 +1411,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>60</v>
@@ -1443,10 +1440,10 @@
     </row>
     <row r="6" spans="1:13" ht="409.6" thickBot="1">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1455,16 +1452,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>64</v>
@@ -1476,7 +1473,7 @@
         <v>63</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>65</v>
@@ -1484,10 +1481,10 @@
     </row>
     <row r="7" spans="1:13" ht="409.6" thickBot="1">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1496,16 +1493,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>67</v>
@@ -1525,10 +1522,10 @@
     </row>
     <row r="8" spans="1:13" ht="409.6" thickBot="1">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1537,16 +1534,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>71</v>
@@ -1566,10 +1563,10 @@
     </row>
     <row r="9" spans="1:13" ht="409.6" thickBot="1">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1578,16 +1575,16 @@
         <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>75</v>
@@ -1610,28 +1607,28 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1640,7 +1637,7 @@
         <v>78</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>80</v>
@@ -1651,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1663,13 +1660,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>82</v>
@@ -1681,7 +1678,7 @@
         <v>81</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>84</v>
@@ -1692,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1704,13 +1701,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>86</v>
@@ -1733,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1745,13 +1742,13 @@
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>91</v>
@@ -1774,28 +1771,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1804,7 +1801,7 @@
         <v>95</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>96</v>
@@ -1815,28 +1812,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1845,7 +1842,7 @@
         <v>97</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>99</v>
@@ -1856,28 +1853,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1897,28 +1894,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1935,13 +1932,13 @@
     </row>
     <row r="18" spans="1:13" ht="290.5" thickBot="1">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1950,16 +1947,16 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1976,13 +1973,13 @@
     </row>
     <row r="19" spans="1:13" ht="290.5" thickBot="1">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1991,28 +1988,28 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="263" thickBot="1">
@@ -2020,25 +2017,25 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>44</v>
@@ -2061,25 +2058,25 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>45</v>
@@ -2099,40 +2096,40 @@
     </row>
     <row r="22" spans="1:13" ht="334" thickBot="1">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -2141,19 +2138,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2162,19 +2159,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" s="8"/>
     </row>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5705A226-9390-4C7B-97C4-788CB51D7B0A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{A3D82A07-7D31-4EBE-8D57-8A2D9B394592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5DDAD6-7EAB-41E2-90BF-ECFC5CF1B1C1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -781,9 +781,6 @@
     <t xml:space="preserve">These statistics should be treated as official statistics in development (previously known as experimental statistics). </t>
   </si>
   <si>
-    <t>May 2025 data</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;These statistics should be treated as official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs and may be modified in the future.&lt;/li&gt;
 &lt;li&gt;Where the same job is identified as being advertised through multiple adverts it is only counted once.&lt;/li&gt;
@@ -793,6 +790,9 @@
   </si>
   <si>
     <t>Apr 2024 - Mar 2025</t>
+  </si>
+  <si>
+    <t>Jun 2025 data</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1282,7 +1282,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1323,7 +1323,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1364,7 +1364,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1446,7 +1446,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1487,7 +1487,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1528,7 +1528,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1569,7 +1569,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1610,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>214</v>
@@ -1622,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmt1pr-dhfs01\Personal\MMEHTA4\Repos\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A84076-B629-42A7-BA34-57CD223AA1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5594FBCF-5455-49E4-A10C-326E0EA0A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="20" windowWidth="15310" windowHeight="14300" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -775,9 +775,6 @@
     <t xml:space="preserve">These statistics should be treated as official statistics in development (previously known as experimental statistics). </t>
   </si>
   <si>
-    <t>May 2025 data</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;These statistics should be treated as official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs and may be modified in the future.&lt;/li&gt;
 &lt;li&gt;Where the same job is identified as being advertised through multiple adverts it is only counted once.&lt;/li&gt;
@@ -790,6 +787,9 @@
   </si>
   <si>
     <t>Growth from 2024 to 2035</t>
+  </si>
+  <si>
+    <t>July 2025 data</t>
   </si>
 </sst>
 </file>
@@ -1222,9 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1279,7 +1277,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1320,7 +1318,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1361,7 +1359,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1402,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1443,7 +1441,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1484,7 +1482,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1525,7 +1523,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1566,7 +1564,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1607,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>212</v>
@@ -1619,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -2099,7 +2097,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2123,7 +2121,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmt1pr-dhfs01\Personal\MMEHTA4\Repos\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5594FBCF-5455-49E4-A10C-326E0EA0A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5594FBCF-5455-49E4-A10C-326E0EA0A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1D1A83-C468-4798-AE14-1519C78973B7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="218">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>July 2025 data</t>
+  </si>
+  <si>
+    <t>Growth from 2024 to 2035. The LSIP boundaries have changed since this data was published so some LSIPs no longer have data</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -2097,7 +2102,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5594FBCF-5455-49E4-A10C-326E0EA0A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1D1A83-C468-4798-AE14-1519C78973B7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5594FBCF-5455-49E4-A10C-326E0EA0A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4372C73-E7AE-46CD-8640-C17D5EA8051E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -792,7 +792,7 @@
     <t>July 2025 data</t>
   </si>
   <si>
-    <t>Growth from 2024 to 2035. The LSIP boundaries have changed since this data was published so some LSIPs no longer have data</t>
+    <t>Growth from 2024 to 2035. The LSIP boundaries have changed and new MCAs have been created since this data was published so some areas no longer have data</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5594FBCF-5455-49E4-A10C-326E0EA0A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4372C73-E7AE-46CD-8640-C17D5EA8051E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5594FBCF-5455-49E4-A10C-326E0EA0A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DBC51A-6437-4170-94D6-33A6417FFAD3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -792,7 +792,7 @@
     <t>July 2025 data</t>
   </si>
   <si>
-    <t>Growth from 2024 to 2035. The LSIP boundaries have changed and new MCAs have been created since this data was published so some areas no longer have data</t>
+    <t>Growth from 2024 to 2035. The LSIP boundaries have changed and new CAs have been created since this data was published so some areas no longer have data</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5594FBCF-5455-49E4-A10C-326E0EA0A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DBC51A-6437-4170-94D6-33A6417FFAD3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EED92E-FFBB-48EE-A880-A61DC579FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -751,9 +751,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mar 2024 data</t>
-  </si>
-  <si>
     <t>Dec 2022 - Dec 2023 data</t>
   </si>
   <si>
@@ -793,6 +790,9 @@
   </si>
   <si>
     <t>Growth from 2024 to 2035. The LSIP boundaries have changed and new CAs have been created since this data was published so some areas no longer have data</t>
+  </si>
+  <si>
+    <t>Mar 2025 data</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1282,7 +1282,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1323,7 +1323,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1364,7 +1364,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1446,7 +1446,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1487,7 +1487,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1528,7 +1528,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1569,7 +1569,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1610,10 +1610,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>168</v>
@@ -1622,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1651,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1733,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>192</v>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>191</v>
@@ -1856,7 +1856,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>183</v>
@@ -1897,7 +1897,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>182</v>
@@ -1938,7 +1938,7 @@
         <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -1979,7 +1979,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -2020,13 +2020,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
         <v>200</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>201</v>
@@ -2061,13 +2061,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
         <v>199</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>202</v>
@@ -2102,7 +2102,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2126,7 +2126,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>
@@ -2141,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2162,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EED92E-FFBB-48EE-A880-A61DC579FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A7EED92E-FFBB-48EE-A880-A61DC579FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{655495D2-3DF7-4328-A444-B9AC2894413F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -716,12 +716,6 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY21/22.</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.</t>
-  </si>
-  <si>
     <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.
 A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
 This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
@@ -793,6 +787,12 @@
   </si>
   <si>
     <t>Mar 2025 data</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY22/23.</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY22/23.</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1282,7 +1282,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1323,7 +1323,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1364,7 +1364,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1446,7 +1446,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1487,7 +1487,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1528,7 +1528,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1569,7 +1569,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1610,10 +1610,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>168</v>
@@ -1622,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1651,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1733,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1774,13 +1774,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1815,13 +1815,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1856,13 +1856,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>184</v>
@@ -1897,13 +1897,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>184</v>
@@ -1938,7 +1938,7 @@
         <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -1979,7 +1979,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -2020,16 +2020,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -2061,19 +2061,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2102,7 +2102,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2126,7 +2126,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>
@@ -2141,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2162,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A7EED92E-FFBB-48EE-A880-A61DC579FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{655495D2-3DF7-4328-A444-B9AC2894413F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AD010C-A709-4448-9D66-68B90B2D9F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -716,32 +716,6 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY21/22.
-A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
-This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
-A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2021 and July 2022).
-Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
-Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY21/22.
-A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
-This means attending for all of the first two terms of the academic year (e.g. October 2021 to March 2022) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
-A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2021 and July 2022).
-Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
-Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-&lt;li&gt;The definition of when a student is at the end of 16 to 18 study has changed last year and comparisons to previous cohorts should be treated with caution. Students are included in this statistical release when they reach the end of 16 to 18 study. The ‘trigger’ rules for deciding when this happens changed in 2020/21. Further details can be found in the &lt;a href = https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;publication&lt;/a&gt;.&lt;/li&gt;
-&lt;li&gt;There was no checking exercise for this cohort of students. The checking exercise ordinarily allows schools and colleges to confirm whether the students we report are at end of 16 to 18 study. This means that this data may not accurately represent whether students were at the end of 16 to 18 study in 2020/21.&lt;/li&gt;
-  &lt;li&gt;Data based on destinations of state-funded mainstream schools and colleges.&lt;/li&gt;
- &lt;li&gt;There is no double counting across destinations, a young person is reported in one destination category only.&lt;/li&gt;
- &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
@@ -793,6 +767,30 @@
   </si>
   <si>
     <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY22/23.</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY22/23.
+A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
+This means attending for all of the first two terms of the academic year (e.g. October 2022 to March 2023) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
+A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2022 and July 2023).
+Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
+Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY22/23.
+A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
+This means attending for all of the first two terms of the academic year (e.g. October 2022 to March 2023) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
+A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2022 and July 2023).
+Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
+Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Data based on destinations of state-funded mainstream schools and colleges.&lt;/li&gt;
+ &lt;li&gt;There is no double counting across destinations, a young person is reported in one destination category only.&lt;/li&gt;
+ &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1282,7 +1280,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1323,7 +1321,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1364,7 +1362,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1405,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1446,7 +1444,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1487,7 +1485,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1528,7 +1526,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1569,7 +1567,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1610,10 +1608,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>168</v>
@@ -1622,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1651,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1692,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1733,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1774,13 +1772,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1815,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1856,13 +1854,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>184</v>
@@ -1897,13 +1895,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>184</v>
@@ -1938,7 +1936,7 @@
         <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -1979,7 +1977,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -2020,16 +2018,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -2056,24 +2054,24 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="409.6" thickBot="1">
+    <row r="21" spans="1:13" ht="254" thickBot="1">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2102,7 +2100,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2126,7 +2124,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>
@@ -2141,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2162,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AD010C-A709-4448-9D66-68B90B2D9F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D71E6F-851C-4896-B1FB-8161B364847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -748,9 +748,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Apr 2024 - Mar 2025</t>
-  </si>
-  <si>
     <t>Growth from 2024 to 2035</t>
   </si>
   <si>
@@ -767,22 +764,6 @@
   </si>
   <si>
     <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY22/23.</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY22/23.
-A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
-This means attending for all of the first two terms of the academic year (e.g. October 2022 to March 2023) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
-A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2022 and July 2023).
-Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
-Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
-  </si>
-  <si>
-    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY22/23.
-A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
-This means attending for all of the first two terms of the academic year (e.g. October 2022 to March 2023) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
-A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2022 and July 2023).
-Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
-Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
   </si>
   <si>
     <t>&lt;ol&gt;
@@ -791,6 +772,25 @@
  &lt;li&gt;If a student is registered as being in education and an apprenticeship, it is recorded as a sustained education and if a student is registered in employment along with an apprenticeship or in education, it is recorded as sustained employment.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 4 studies (usually aged between 14 to 16). The cohort of learners used in the metrics here completed in AY22/23.
+A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
+This means attending for all of the first two terms of the academic year (e.g. October 2023 to March 2024) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
+A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2023 and July 2024).
+Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
+Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
+  </si>
+  <si>
+    <t>Destination measures show the percentage of students going to or remaining in an education, apprenticeship or employment destination in the academic year after completing Key Stage 5 studies (usually aged 18). The cohort of learners used in the metrics here completed in AY22/23.
+A sustained destination is a count of young people recorded as having sustained participation (education and employment) for a 6 month period in the destination year.
+This means attending for all of the first two terms of the academic year (e.g. October 2023 to March 2024) at one or more education providers; spending 5 of the 6 months in employment or a combination of the two.
+A sustained apprenticeship is recorded when 6 months continuous participation is recorded at any point in the destination year (between August 2023 and July 2024).
+Not recorded includes pupils who were captured in the destination source data but who failed to meet the sustained participation criteria.
+Unknown (activity not captured): The student was not found to have any participation in education, apprenticeship or employment nor recorded as receiving out-of-work benefits at any point in the year. This also includes not being recorded by their Local Authority as NEET (not engaged in education, employment or training).</t>
+  </si>
+  <si>
+    <t>Jul 2024 - Jun 2025</t>
   </si>
 </sst>
 </file>
@@ -842,9 +842,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="7"/>
+      <color rgb="FF635757"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -904,9 +904,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1280,7 +1278,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1321,7 +1319,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1362,7 +1360,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1403,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1444,7 +1442,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1485,7 +1483,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1526,7 +1524,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1567,7 +1565,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1608,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>206</v>
@@ -1649,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -2021,7 +2019,7 @@
         <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>203</v>
@@ -2062,7 +2060,7 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>204</v>
@@ -2071,7 +2069,7 @@
         <v>216</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2100,7 +2098,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2124,7 +2122,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D71E6F-851C-4896-B1FB-8161B364847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5420C27-934F-49A7-B748-DA5054C86ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -737,9 +737,6 @@
     <t>Jan-Dec 2024 data</t>
   </si>
   <si>
-    <t xml:space="preserve">These statistics should be treated as official statistics in development (previously known as experimental statistics). </t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;These statistics should be treated as official statistics in development (previously known as experimental statistics), as they are still subject to testing the ability to meet user needs and may be modified in the future.&lt;/li&gt;
 &lt;li&gt;Where the same job is identified as being advertised through multiple adverts it is only counted once.&lt;/li&gt;
@@ -791,6 +788,9 @@
   </si>
   <si>
     <t>Jul 2024 - Jun 2025</t>
+  </si>
+  <si>
+    <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). ONS have temporarily paused publication of the snapshot metric for online job adverts so the latest data available covers up to July 2025. More up to date data on new adverts is still available directly from the  &lt;a href="https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk"&gt;ONS website&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1278,7 +1278,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1319,7 +1319,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1360,7 +1360,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1442,7 +1442,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1483,7 +1483,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1524,7 +1524,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1565,7 +1565,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1606,10 +1606,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>168</v>
@@ -1618,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1647,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -2019,13 +2019,13 @@
         <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -2060,16 +2060,16 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2098,7 +2098,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2122,7 +2122,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-2_dataText\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5420C27-934F-49A7-B748-DA5054C86ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-2_dataText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jevans8\Repos\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5420C27-934F-49A7-B748-DA5054C86ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3F6A18-A047-4882-81D7-67D1BCE15357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -719,9 +719,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Dec 2022 - Dec 2023 data</t>
-  </si>
-  <si>
     <t>AY23/24 data</t>
   </si>
   <si>
@@ -791,6 +788,9 @@
   </si>
   <si>
     <t>These statistics should be treated as official statistics in development (previously known as experimental statistics). ONS have temporarily paused publication of the snapshot metric for online job adverts so the latest data available covers up to July 2025. More up to date data on new adverts is still available directly from the  &lt;a href="https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk"&gt;ONS website&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Dec 2023 - Dec 2024 data</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1278,7 +1278,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1319,7 +1319,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1360,7 +1360,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1442,7 +1442,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1483,7 +1483,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1524,7 +1524,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1565,7 +1565,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1606,10 +1606,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>168</v>
@@ -1618,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1647,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1729,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1770,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>192</v>
@@ -1811,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>191</v>
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>183</v>
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>182</v>
@@ -1934,7 +1934,7 @@
         <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -1975,7 +1975,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -2016,16 +2016,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -2057,19 +2057,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2098,7 +2098,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2122,7 +2122,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>
@@ -2137,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2158,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jevans8\Repos\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3F6A18-A047-4882-81D7-67D1BCE15357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D7D926-EF98-4D05-A8BD-46CC8612AED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="219">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -639,20 +639,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">This indicator shows 19+ further education and skills participation rate per 100,000 population. Further education and skills include apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This indicator shows 19+ further education and skills achievements rate per 100,000 population. Further education and skills include apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community. 
-</t>
-  </si>
-  <si>
-    <t>FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
-Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
-Community learning funds a wide range of non-formal courses (e.g. IT or employability skills) and activity targeted at deprived areas or disadvantaged groups. They can be offered by local authorities, colleges, community groups.
-Achievements are the number of learners who successfully complete an individual aim in an academic year.</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;Achievements included are learners that completed their qualification at any point during the stated academic period.&lt;/li&gt;
  &lt;li&gt;Learners achieving more than one course will appear only once in totals.&lt;/li&gt;
@@ -661,14 +647,6 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;ol&gt;
-  &lt;li&gt;Participation includes learners that particpated at any point during the stated academic period.&lt;/li&gt;
- &lt;li&gt;Learners participating in more than one course will appear only once in the grand total.&lt;/li&gt;
- &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>The FE achievement rate per 100,000 in</t>
   </si>
   <si>
@@ -679,12 +657,6 @@
   </si>
   <si>
     <t>FE participation in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This indicator shows 19+ further education and skills learner participation. Further education and skills include apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This indicator shows 19+ further education and skills learner achievements. Further education and skills include apprenticeships and publicly-funded adult learning, including community learning, delivered by an FE institution, a training provider or within a local community. </t>
   </si>
   <si>
     <t>The proportion of people qualified at Level 4 or above in</t>
@@ -791,6 +763,41 @@
   </si>
   <si>
     <t>Dec 2023 - Dec 2024 data</t>
+  </si>
+  <si>
+    <t>AY24/25 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator shows 19+ further education and skills learner achievements. Further education and skills include apprenticeships and publicly-funded adult learning, including tailored learning, delivered by an FE institution, a training provider or within a local community. </t>
+  </si>
+  <si>
+    <t>Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including tailored learning, delivered by an FE institution, a training provider or within a local community.
+FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
+Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
+Tailored learning is primarily non-qualification based provision that is tailored to the skills needs of the learners, employers and local communities.
+Achievements are the number of learners who successfully complete an individual aim in an academic year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator shows 19+ further education and skills achievements rate per 100,000 population. Further education and skills include apprenticeships and publicly-funded adult learning, including tailored learning, delivered by an FE institution, a training provider or within a local community. 
+</t>
+  </si>
+  <si>
+    <t>FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
+Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
+Tailored learning is primarily non-qualification based provision that is tailored to the skills needs of the learners, employers and local communities.
+Achievements are the number of learners who successfully complete an individual aim in an academic year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator shows 19+ further education and skills participation rate per 100,000 population. Further education and skills include apprenticeships and publicly-funded adult learning, including tailored learning, delivered by an FE institution, a training provider or within a local community. 
+</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Participation includes learners that participated at any point during the stated academic period.&lt;/li&gt;
+ &lt;li&gt;Learners participating in more than one course will appear only once in the grand total.&lt;/li&gt;
+ &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1278,7 +1285,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1287,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>167</v>
@@ -1319,7 +1326,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1328,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>167</v>
@@ -1360,7 +1367,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1369,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>180</v>
@@ -1401,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1410,7 +1417,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>167</v>
@@ -1442,7 +1449,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1451,7 +1458,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>181</v>
@@ -1483,7 +1490,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1492,7 +1499,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>179</v>
@@ -1524,7 +1531,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1533,7 +1540,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>179</v>
@@ -1565,7 +1572,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1574,7 +1581,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>167</v>
@@ -1606,10 +1613,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>168</v>
@@ -1618,7 +1625,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1627,7 +1634,7 @@
         <v>135</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1647,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1688,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1729,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1765,21 +1772,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="363" thickBot="1">
+    <row r="14" spans="1:13" ht="334" thickBot="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>149</v>
@@ -1791,7 +1798,7 @@
         <v>139</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1806,21 +1813,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="363" thickBot="1">
+    <row r="15" spans="1:13" ht="334" thickBot="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>149</v>
@@ -1832,7 +1839,7 @@
         <v>140</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1852,19 +1859,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
@@ -1873,7 +1880,7 @@
         <v>141</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1893,19 +1900,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -1914,7 +1921,7 @@
         <v>142</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1934,7 +1941,7 @@
         <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -1955,7 +1962,7 @@
         <v>143</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1975,7 +1982,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -1996,7 +2003,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>172</v>
@@ -2016,16 +2023,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -2057,19 +2064,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2098,7 +2105,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2107,10 +2114,10 @@
         <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>124</v>
@@ -2122,7 +2129,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>
@@ -2137,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2158,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jevans8\Repos\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D7D926-EF98-4D05-A8BD-46CC8612AED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42F8BDB-18D2-4A8E-9865-2855133E95DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -688,9 +688,6 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>AY23/24 data</t>
   </si>
   <si>
@@ -792,12 +789,23 @@
 </t>
   </si>
   <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/1977cdbc-7eae-4257-a8c9-3281bb2dbfa9'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>&lt;ol&gt;
-  &lt;li&gt;Participation includes learners that participated at any point during the stated academic period.&lt;/li&gt;
- &lt;li&gt;Learners participating in more than one course will appear only once in the grand total.&lt;/li&gt;
+  &lt;li&gt;Total participation is a count of the number of learners who attended at least one day on a learning aim.&lt;/li&gt;
+ &lt;li&gt;A learner who is studying more than one learning aim at different levels or different community learning purpose types, is counted once against each level or type.&lt;/li&gt; 
+&lt;li&gt;A learner is counted only once in any total (e.g. national) count of participation, regardless of how many different learning aims they have.&lt;/li&gt;
  &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including tailored learning, delivered by an FE institution, a training provider or within a local community.
+FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
+Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
+Tailored learning is primarily non-qualification based provision that is tailored to the skills needs of the learners, employers and local communities.
+Participation is the number of learners who attended at least one day on a learning aim.</t>
   </si>
 </sst>
 </file>
@@ -1228,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1285,7 +1293,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1326,7 +1334,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1367,7 +1375,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1408,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1449,7 +1457,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1490,7 +1498,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1531,7 +1539,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1572,7 +1580,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1613,10 +1621,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>168</v>
@@ -1625,7 +1633,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1654,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1695,7 +1703,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1736,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1777,16 +1785,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>149</v>
@@ -1813,24 +1821,24 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="334" thickBot="1">
+    <row r="15" spans="1:13" ht="319.5" thickBot="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>40</v>
@@ -1859,16 +1867,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>182</v>
@@ -1900,16 +1908,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" t="s">
         <v>217</v>
       </c>
-      <c r="D17" t="s">
-        <v>193</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>218</v>
@@ -1941,7 +1949,7 @@
         <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -1982,7 +1990,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -2018,21 +2026,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="263" thickBot="1">
+    <row r="20" spans="1:13" ht="272" thickBot="1">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -2064,19 +2072,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2105,7 +2113,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2129,7 +2137,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>
@@ -2144,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2165,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jevans8\Repos\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42F8BDB-18D2-4A8E-9865-2855133E95DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA23BE7-D657-4EF6-B0A9-006B1484A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="219">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -777,12 +777,6 @@
   <si>
     <t xml:space="preserve">This indicator shows 19+ further education and skills achievements rate per 100,000 population. Further education and skills include apprenticeships and publicly-funded adult learning, including tailored learning, delivered by an FE institution, a training provider or within a local community. 
 </t>
-  </si>
-  <si>
-    <t>FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
-Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
-Tailored learning is primarily non-qualification based provision that is tailored to the skills needs of the learners, employers and local communities.
-Achievements are the number of learners who successfully complete an individual aim in an academic year.</t>
   </si>
   <si>
     <t xml:space="preserve">This indicator shows 19+ further education and skills participation rate per 100,000 population. Further education and skills include apprenticeships and publicly-funded adult learning, including tailored learning, delivered by an FE institution, a training provider or within a local community. 
@@ -1236,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1791,7 +1785,7 @@
         <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>213</v>
@@ -1832,13 +1826,13 @@
         <v>212</v>
       </c>
       <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>40</v>
@@ -1873,10 +1867,10 @@
         <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>182</v>
@@ -1911,16 +1905,16 @@
         <v>211</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" t="s">
         <v>216</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -2026,7 +2020,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="272" thickBot="1">
+    <row r="20" spans="1:13" ht="263" thickBot="1">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Data/3-2_dataText/dataText.xlsx
+++ b/Data/3-2_dataText/dataText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jevans8\Repos\lsip_dashboard\Data\3-2_dataText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA23BE7-D657-4EF6-B0A9-006B1484A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC4C16-EB78-4779-978A-367C83BDA8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E004AAF5-AC7D-409D-877C-9EBD23056743}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
   <si>
     <t>inactiveRate</t>
   </si>
@@ -636,14 +636,6 @@
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;li&gt;Standard Occupational Classification 2020 (SOC2020).&lt;/li&gt;
 &lt;li&gt;Industry groups are Standard Industrial Classification: SIC 2007.&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-  &lt;li&gt;Achievements included are learners that completed their qualification at any point during the stated academic period.&lt;/li&gt;
- &lt;li&gt;Learners achieving more than one course will appear only once in totals.&lt;/li&gt;
- &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
-&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
@@ -786,20 +778,39 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/1977cdbc-7eae-4257-a8c9-3281bb2dbfa9'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including tailored learning, delivered by an FE institution, a training provider or within a local community.
+FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
+Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
+Tailored learning is primarily non-qualification based provision that is tailored to the skills needs of the learners, employers and local communities.
+Participation is the number of learners who attended at least one day on a learning aim.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Total achievements is the count of learners that completed their qualification at any point during the stated academic period.&lt;/li&gt;
+ &lt;li&gt;Learners achieving more than one course will appear only once in the grand total.&lt;/li&gt;
+ &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;li&gt;Figures for newly formed CAs have been calculated from Local Authority data to create a back series. There may be small differences to the published data for these geographies due to rounding errors.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
     <t>&lt;ol&gt;
   &lt;li&gt;Total participation is a count of the number of learners who attended at least one day on a learning aim.&lt;/li&gt;
  &lt;li&gt;A learner who is studying more than one learning aim at different levels or different community learning purpose types, is counted once against each level or type.&lt;/li&gt; 
 &lt;li&gt;A learner is counted only once in any total (e.g. national) count of participation, regardless of how many different learning aims they have.&lt;/li&gt;
  &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
 &lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;li&gt;Figures for newly formed CAs have been calculated from Local Authority data to create a back series. There may be small differences to the published data for these geographies due to rounding errors.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Further education and skills include all age apprenticeships and publicly-funded adult (19+) learning, including tailored learning, delivered by an FE institution, a training provider or within a local community.
-FE and skills does not includer higher education, unless delivered as part of an apprenticeship programme.
-Apprenticeships are paid jobs that incorporate on-the-job and off-the-job training leading to nationally recognised qualifications.
-Tailored learning is primarily non-qualification based provision that is tailored to the skills needs of the learners, employers and local communities.
-Participation is the number of learners who attended at least one day on a learning aim.</t>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Achievements included are learners that completed their qualification at any point during the stated academic period.&lt;/li&gt;
+ &lt;li&gt;Learners achieving more than one course will appear only once in totals.&lt;/li&gt;
+ &lt;li&gt;Years shown represent academic years.&lt;/li&gt;
+&lt;li&gt;Use caution when interpreting this data. A difference between subgroups does not necessarily imply any causality. There could be other contributing factors at work.&lt;/li&gt;
+&lt;li&gt;Figures for newly formed CAs have been calculated from Local Authority data to create a back series. There may be small differences to the published data for these geographies due to rounding errors.&lt;/li&gt;
+&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -1230,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D33D53-EEC7-4B18-8C67-5F9034426AB5}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1287,7 +1298,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -1296,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>167</v>
@@ -1328,7 +1339,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1337,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>167</v>
@@ -1369,7 +1380,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -1378,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>180</v>
@@ -1410,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
@@ -1419,7 +1430,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>167</v>
@@ -1451,7 +1462,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1460,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>181</v>
@@ -1492,7 +1503,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1501,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>179</v>
@@ -1533,7 +1544,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1542,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>179</v>
@@ -1574,7 +1585,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1583,7 +1594,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>167</v>
@@ -1615,10 +1626,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>168</v>
@@ -1627,7 +1638,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>35</v>
@@ -1636,7 +1647,7 @@
         <v>135</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1656,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1697,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -1738,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
@@ -1779,19 +1790,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>39</v>
@@ -1800,7 +1811,7 @@
         <v>139</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>95</v>
@@ -1820,19 +1831,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="D15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>40</v>
@@ -1841,7 +1852,7 @@
         <v>140</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>98</v>
@@ -1861,19 +1872,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>41</v>
@@ -1882,7 +1893,7 @@
         <v>141</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>101</v>
@@ -1902,19 +1913,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
         <v>215</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -1923,7 +1934,7 @@
         <v>142</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>104</v>
@@ -1943,7 +1954,7 @@
         <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -1964,7 +1975,7 @@
         <v>143</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>107</v>
@@ -1984,7 +1995,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -2005,7 +2016,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>172</v>
@@ -2025,16 +2036,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -2066,19 +2077,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>45</v>
@@ -2107,7 +2118,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2116,10 +2127,10 @@
         <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>124</v>
@@ -2131,7 +2142,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>125</v>
@@ -2146,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2167,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>
